--- a/JSP/JSP게시판만들기.xlsx
+++ b/JSP/JSP게시판만들기.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\취업\11.개인공부\2. JSP게시판\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\CCPAPA\JSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C15FF77-0A8E-484C-A8B6-ED229F8E1BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9C84FF-86C0-4526-93F5-F69B8DCA2B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
   </bookViews>
   <sheets>
     <sheet name="환경설정" sheetId="3" r:id="rId1"/>
-    <sheet name="간단지식" sheetId="1" r:id="rId2"/>
-    <sheet name="DB,TABLE작성" sheetId="2" r:id="rId3"/>
+    <sheet name="DB,TABLE작성" sheetId="2" r:id="rId2"/>
+    <sheet name="웰컴파일리스트" sheetId="1" r:id="rId3"/>
+    <sheet name="웹서버,웹어플리케이션서버" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">간단지식!$A$1:$P$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">웰컴파일리스트!$A$1:$P$61</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>Localhost:8080의 해당 폴더</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +126,234 @@
   </si>
   <si>
     <t>⑤ 작성 후 에는 컨트롤 + 쉬프트 + 엔터 로 쿼리 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello.avi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것이 웹서버가 되는 것!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(외부에서 접근 가능하게 해 놓은 폴더)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹서버:아파치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파치(웹서버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 프로그램은 각 포트를 사용하고 있는 것!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://IP주소:포트번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) 아파치라는 공용프로그램에 접근하기 위해서는 포트번호가 필요하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹서버(아파치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파치에 접근했다면 위의 폴더로 접근 된다는 뜻.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP란?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹브라우저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html안에 자바가 존재 하는 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹브라우저 통해서 파일 접근 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉 아파치는 폴더 안에 해당 파일 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 만일,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가 아파치가 인식 못하는 파일 일 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이때는,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톰켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 처리해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello.avi 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello.avi 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Java관련 컴파일 이 가능하기 때문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_jsp.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의내부처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서블릿으로 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_jsp.class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이부분만 해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉 자바코드를 톰캣이 해석해서 결과값을 넣어 줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 웹 서버(아파치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 웹 어플리케이션 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>= WAS의 한 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,18 +385,112 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -178,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,6 +513,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -268,574 +651,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>146798</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>235325</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="그룹 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBA213F-D8A1-4350-929E-49F12EF54F5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="731184" y="729504"/>
-          <a:ext cx="6474198" cy="3584762"/>
-          <a:chOff x="685800" y="209550"/>
-          <a:chExt cx="9583487" cy="4067743"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="그림 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099E7A0A-0D11-4EF2-A4D1-7711765B9E4F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="685800" y="209550"/>
-            <a:ext cx="9583487" cy="4067743"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF">
-              <a:shade val="85000"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:ln w="88900" cap="sq">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="40000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="twoPt" dir="t">
-              <a:rot lat="0" lon="0" rev="7200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="25400" h="19050"/>
-            <a:contourClr>
-              <a:srgbClr val="FFFFFF"/>
-            </a:contourClr>
-          </a:sp3d>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="직사각형 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77C3A57-AE91-4253-8698-0D491E7F430D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1718246" y="568207"/>
-            <a:ext cx="1179553" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="직사각형 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0E26DB-45F6-460D-A219-7D20021E8479}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4772025" y="2419350"/>
-            <a:ext cx="1409700" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>216411</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>245249</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="그룹 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BF08B3-2E49-4B58-BADD-AC2CEB828886}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="683559" y="5827059"/>
-          <a:ext cx="7735558" cy="2867425"/>
-          <a:chOff x="683559" y="5827059"/>
-          <a:chExt cx="7735558" cy="2867425"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15" name="그룹 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8272974D-96C6-41D2-A9FC-9AAC5F0AACF3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="3417794" y="5827059"/>
-            <a:ext cx="5001323" cy="2867425"/>
-            <a:chOff x="3417794" y="5827059"/>
-            <a:chExt cx="5001323" cy="2867425"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="그림 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21124D6A-52F7-4C30-B08C-2FF619925F01}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3417794" y="5827059"/>
-              <a:ext cx="5001323" cy="2867425"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="직사각형 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F83BE5-6989-4DA6-9E5C-9C7AB6A4436F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4415118" y="5860677"/>
-              <a:ext cx="3843617" cy="291352"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="그림 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E109CE0-ACBB-49EB-AA24-BB9C60C56929}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="683559" y="5827059"/>
-            <a:ext cx="1600423" cy="466790"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>64355</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>199608</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8152F4-F050-4E0A-BA77-F4B202F05BD0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="717177" y="9950823"/>
-          <a:ext cx="3448531" cy="1028844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266559</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>40470</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DC3DE5-F0A7-40E0-A800-3EB1F2A7CEE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683559" y="11654118"/>
-          <a:ext cx="3000794" cy="914528"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>280147</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="그룹 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015FDF6A-8041-43DD-AE70-49583EC3CE7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="739588" y="13682382"/>
-          <a:ext cx="5076265" cy="3316942"/>
-          <a:chOff x="739588" y="13682382"/>
-          <a:chExt cx="5076265" cy="3316942"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="그림 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0998CCE-ED74-4F1D-A7E3-AA980B47A7C0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="739588" y="13682382"/>
-            <a:ext cx="5076265" cy="3316409"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="직사각형 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5F9DA8-EF35-4C0C-AD8C-4EF4813BB1C8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2812676" y="16125264"/>
-            <a:ext cx="2980765" cy="874060"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2226,6 +2041,1220 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>235325</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="그룹 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBA213F-D8A1-4350-929E-49F12EF54F5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="731184" y="729504"/>
+          <a:ext cx="6474198" cy="3584762"/>
+          <a:chOff x="685800" y="209550"/>
+          <a:chExt cx="9583487" cy="4067743"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="그림 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099E7A0A-0D11-4EF2-A4D1-7711765B9E4F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="209550"/>
+            <a:ext cx="9583487" cy="4067743"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:shade val="85000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="88900" cap="sq">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="40000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="twoPt" dir="t">
+              <a:rot lat="0" lon="0" rev="7200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="25400" h="19050"/>
+            <a:contourClr>
+              <a:srgbClr val="FFFFFF"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="직사각형 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77C3A57-AE91-4253-8698-0D491E7F430D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1718246" y="568207"/>
+            <a:ext cx="1179553" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="직사각형 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0E26DB-45F6-460D-A219-7D20021E8479}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4772025" y="2419350"/>
+            <a:ext cx="1409700" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>216411</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>245249</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="그룹 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BF08B3-2E49-4B58-BADD-AC2CEB828886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="683559" y="5827059"/>
+          <a:ext cx="7735558" cy="2867425"/>
+          <a:chOff x="683559" y="5827059"/>
+          <a:chExt cx="7735558" cy="2867425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="그룹 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8272974D-96C6-41D2-A9FC-9AAC5F0AACF3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3417794" y="5827059"/>
+            <a:ext cx="5001323" cy="2867425"/>
+            <a:chOff x="3417794" y="5827059"/>
+            <a:chExt cx="5001323" cy="2867425"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="그림 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21124D6A-52F7-4C30-B08C-2FF619925F01}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3417794" y="5827059"/>
+              <a:ext cx="5001323" cy="2867425"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="직사각형 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F83BE5-6989-4DA6-9E5C-9C7AB6A4436F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4415118" y="5860677"/>
+              <a:ext cx="3843617" cy="291352"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="그림 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E109CE0-ACBB-49EB-AA24-BB9C60C56929}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="683559" y="5827059"/>
+            <a:ext cx="1600423" cy="466790"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>64355</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>199608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8152F4-F050-4E0A-BA77-F4B202F05BD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717177" y="9950823"/>
+          <a:ext cx="3448531" cy="1028844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266559</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>40470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DC3DE5-F0A7-40E0-A800-3EB1F2A7CEE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="11654118"/>
+          <a:ext cx="3000794" cy="914528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>280147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="그룹 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015FDF6A-8041-43DD-AE70-49583EC3CE7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="739588" y="13682382"/>
+          <a:ext cx="5076265" cy="3316942"/>
+          <a:chOff x="739588" y="13682382"/>
+          <a:chExt cx="5076265" cy="3316942"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="그림 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0998CCE-ED74-4F1D-A7E3-AA980B47A7C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="739588" y="13682382"/>
+            <a:ext cx="5076265" cy="3316409"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="직사각형 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5F9DA8-EF35-4C0C-AD8C-4EF4813BB1C8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2812676" y="16125264"/>
+            <a:ext cx="2980765" cy="874060"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07448D5A-6F91-4C81-AD09-ADD81A112DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="723900"/>
+          <a:ext cx="381000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2996337F-C04D-4DC0-A217-36AB062FF7E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2076450" y="514350"/>
+          <a:ext cx="2057400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="직선 화살표 연결선 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CAF5D5-8ECD-4649-9CD2-D8719701F7D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="533400"/>
+          <a:ext cx="1085850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5A2694-3003-42E5-B5C0-E715477EDB39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2314575" y="2419350"/>
+          <a:ext cx="2057400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>690563</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="연결선: 꺾임 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC2C20F-197D-4935-A98E-1BE35948ABA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5053013" y="638175"/>
+          <a:ext cx="947737" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -24121"/>
+            <a:gd name="adj2" fmla="val 52015"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1085442D-42AC-438B-A2C3-16AC7DAE565B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1943100" y="4705350"/>
+          <a:ext cx="2057400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB78141-FAC7-447C-BCA8-E22517B3D385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1933575" y="5124450"/>
+          <a:ext cx="2076451" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA988128-91F6-432D-8DB8-C1839C009B3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="5467350"/>
+          <a:ext cx="0" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7B8E92-DC70-42E7-9928-2BAB71048DD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1943100" y="8296275"/>
+          <a:ext cx="1123950" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="직선 화살표 연결선 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D487A28-F549-4585-A4DE-8420F1F0834F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4010025" y="8277225"/>
+          <a:ext cx="809625" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="직선 화살표 연결선 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275B0052-BD92-4847-A416-D543E498423A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5857875" y="8277225"/>
+          <a:ext cx="600075" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B53193C-4A9A-4BA6-9F08-76F6A2C6E20D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1943100" y="9544050"/>
+          <a:ext cx="1123950" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2550,11 +3579,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA243B5-DB4C-4472-9194-7CA5D45ED8CA}">
+  <dimension ref="B3:E133"/>
+  <sheetViews>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J138" sqref="J138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="5" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4BED43-3469-4FE2-B6C6-7DE59FC4185A}">
   <dimension ref="B1:B59"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W52" sqref="W52"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
@@ -2662,107 +3796,384 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA243B5-DB4C-4472-9194-7CA5D45ED8CA}">
-  <dimension ref="B3:E133"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4ADC4E-52EF-4538-930D-D124844F4BBA}">
+  <dimension ref="B2:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J138" sqref="J138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="5" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="4.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" t="s">
-        <v>21</v>
-      </c>
+    <row r="2" spans="2:10">
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="C3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="I5" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="I6" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="D11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="C13" s="6"/>
+      <c r="G13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="G14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="G15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="G16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="4">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="C24" s="12"/>
+      <c r="G24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="C25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="C29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="C31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="C33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="D39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="C40" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="C43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="C44" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="C45" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="C46" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="C47" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="C48" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="C52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C23:C24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/JSP/JSP게시판만들기.xlsx
+++ b/JSP/JSP게시판만들기.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\CCPAPA\JSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\1218\JSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9C84FF-86C0-4526-93F5-F69B8DCA2B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A231498-BB49-4078-8928-6DBDC63C7965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="4" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
   </bookViews>
   <sheets>
     <sheet name="환경설정" sheetId="3" r:id="rId1"/>
     <sheet name="DB,TABLE작성" sheetId="2" r:id="rId2"/>
     <sheet name="웰컴파일리스트" sheetId="1" r:id="rId3"/>
     <sheet name="웹서버,웹어플리케이션서버" sheetId="4" r:id="rId4"/>
+    <sheet name="stateless" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">웰컴파일리스트!$A$1:$P$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">웰컴파일리스트!$A$1:$P$60</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="130">
   <si>
     <t>Localhost:8080의 해당 폴더</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,24 +356,321 @@
   <si>
     <t>= WAS의 한 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stateless란?</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>연결 지속x는 것</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http프로토콜(약속)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>stateless의 예</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>목적=자원공유</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>html 문서</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hwp문서</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hwp문서 해석</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>예)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>html 해석은 웹 브라우저</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>한글2007</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>자원의 예)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>파일요청</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a.hwp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>하드디스크</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>파일응답</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a.hwp해석</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>워드</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a.hwp해석못함</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>X프로그램</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a.hwp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGGothicE"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> a.docx 변환</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a.docx해석</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>즉 워드는 하드디스크에 a.hwp파일을 요청하는 것이 아니라 X프로그램에 요청</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.hwp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일을 요청하는 경우</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>워드가 a.hwp파일을 요청하는 경우</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>X프로그램을 사용해서 hwp를 docx로 변환하는 경우</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a.html</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a.html 해석</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>요청은 브라우저를 통해서만!</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">요청가능한 형식은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만!</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>이러면 요청가능한 것이 브라우저로 통일 되어 있고 요청가능 형식도 통일 되어 있기 때문에</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>간편함</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http프로토콜(약속)의 경우</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>stateless를 예로 설명</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>요청과 응답이 이루어 졌으면 계속 서버와 연결 하는 것이 아니라 연결을 끊는다.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>브라우저(클라이언트)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>자원공유</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>그래야 서버의 부담이 적어짐</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>stateless의 반대어=statefull(상시연결)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>statefull의 예) 채팅</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>단점: 서버 입장에선 매번 새로운 사람으로 인식이 되버림(끊었다 연결했다하기때문)</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -384,8 +682,49 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HGGothicE"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,8 +773,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -495,13 +852,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,26 +950,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,9 +992,81 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -766,8 +1256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="704850" y="11525250"/>
-          <a:ext cx="10639425" cy="2428875"/>
+          <a:off x="701040" y="12573000"/>
+          <a:ext cx="10467975" cy="2638425"/>
           <a:chOff x="704850" y="11525250"/>
           <a:chExt cx="10639425" cy="2428875"/>
         </a:xfrm>
@@ -1520,8 +2010,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="704850" y="14668500"/>
-          <a:ext cx="11917438" cy="5163271"/>
+          <a:off x="701040" y="16002000"/>
+          <a:ext cx="11715508" cy="5620471"/>
           <a:chOff x="704850" y="14668500"/>
           <a:chExt cx="11917438" cy="5163271"/>
         </a:xfrm>
@@ -1898,8 +2388,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="704850" y="27870150"/>
-          <a:ext cx="1962424" cy="5325218"/>
+          <a:off x="701040" y="30403800"/>
+          <a:ext cx="1954804" cy="5801468"/>
           <a:chOff x="704850" y="27870150"/>
           <a:chExt cx="1962424" cy="5325218"/>
         </a:xfrm>
@@ -2069,8 +2559,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="731184" y="729504"/>
-          <a:ext cx="6474198" cy="3584762"/>
+          <a:off x="719978" y="720539"/>
+          <a:ext cx="6373345" cy="3530974"/>
           <a:chOff x="685800" y="209550"/>
           <a:chExt cx="9583487" cy="4067743"/>
         </a:xfrm>
@@ -2265,8 +2755,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="683559" y="5827059"/>
-          <a:ext cx="7735558" cy="2867425"/>
+          <a:off x="672353" y="5737412"/>
+          <a:ext cx="7612293" cy="2827084"/>
           <a:chOff x="683559" y="5827059"/>
           <a:chExt cx="7735558" cy="2867425"/>
         </a:xfrm>
@@ -2517,8 +3007,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="739588" y="13682382"/>
-          <a:ext cx="5076265" cy="3316942"/>
+          <a:off x="728382" y="13476194"/>
+          <a:ext cx="4997824" cy="3263153"/>
           <a:chOff x="739588" y="13682382"/>
           <a:chExt cx="5076265" cy="3316942"/>
         </a:xfrm>
@@ -3255,8 +3745,707 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A958CA5-AF36-4CE6-B34A-01C9EFE0D3F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="1257300"/>
+          <a:ext cx="609600" cy="7621"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3210B6E4-0225-4528-989E-9A14D6D5DDC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="1257300"/>
+          <a:ext cx="609600" cy="7621"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94984E2-56A4-4934-94BA-8CD7BB8718E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="1257300"/>
+          <a:ext cx="609600" cy="7621"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C0A432-581E-4E0C-9123-69CDBC0D37CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1982153" y="3771900"/>
+          <a:ext cx="641985" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC34299-BCF2-48CA-B4EC-3667E0D2A62E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1987475" y="3144371"/>
+          <a:ext cx="609600" cy="7621"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A43E702-43AD-416C-B4A0-5D36BF16D355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1987475" y="3843618"/>
+          <a:ext cx="641985" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D95AA3-592E-4A9F-92B2-B5FE92D472C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1987475" y="5242112"/>
+          <a:ext cx="609600" cy="7621"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A265D6DD-75DE-494E-BCD5-1B2C72BD4343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1981200" y="8256494"/>
+          <a:ext cx="648261" cy="481853"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C33E53-5E88-42BE-9663-6262DF439CCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1646816" y="5708276"/>
+          <a:ext cx="609600" cy="7621"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391D4105-CC37-4EB3-9675-10A65BFC3EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1646816" y="6407524"/>
+          <a:ext cx="641985" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A07EF7D-B026-42BC-B183-74B813FDFF59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1646816" y="11535335"/>
+          <a:ext cx="609600" cy="7621"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F2DC6C-3D27-4D87-98ED-4BD410271F9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1646816" y="12234582"/>
+          <a:ext cx="641985" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98613</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>206189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>206189</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="中かっこ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A493602E-ADC1-4356-8C17-0CDBD2971B7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98613" y="14424213"/>
+          <a:ext cx="4249270" cy="1398494"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3558,7 +4747,7 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -3582,14 +4771,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA243B5-DB4C-4472-9194-7CA5D45ED8CA}">
   <dimension ref="B3:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="5" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="1" max="5" width="9.19921875" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
@@ -3687,8 +4876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4BED43-3469-4FE2-B6C6-7DE59FC4185A}">
   <dimension ref="B1:B59"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
@@ -3800,24 +4989,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4ADC4E-52EF-4538-930D-D124844F4BBA}">
   <dimension ref="B2:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="4.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="4.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="7.75" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3825,8 +5014,8 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="C3" s="20"/>
+      <c r="G3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J3" t="s">
@@ -3837,17 +5026,17 @@
       <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3860,7 +5049,7 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
@@ -3876,25 +5065,25 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="C13" s="6"/>
+      <c r="C13" s="20"/>
       <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
@@ -3930,7 +5119,7 @@
       <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
@@ -3954,10 +5143,10 @@
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="I23" t="s">
@@ -3968,8 +5157,8 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="12"/>
-      <c r="G24" s="10" t="s">
+      <c r="C24" s="23"/>
+      <c r="G24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I24" t="s">
@@ -3977,10 +5166,10 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I25" t="s">
@@ -3991,7 +5180,7 @@
       <c r="D26" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="10" t="s">
         <v>53</v>
       </c>
       <c r="I26" t="s">
@@ -4009,13 +5198,13 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4025,7 +5214,7 @@
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D31" t="s">
@@ -4038,7 +5227,7 @@
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D33" t="s">
@@ -4052,7 +5241,7 @@
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D37" t="s">
@@ -4060,7 +5249,7 @@
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="C38" s="17"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="2:9">
       <c r="D39" s="5" t="s">
@@ -4075,16 +5264,16 @@
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4094,49 +5283,49 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:9">
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" spans="2:9">
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="21"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4144,7 +5333,7 @@
       <c r="B51" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D51" t="s">
@@ -4152,16 +5341,16 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D52" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="23"/>
+      <c r="G52" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4176,4 +5365,422 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63E0985-F298-469F-975F-E1A282A83250}">
+  <dimension ref="A2:G71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="F8" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="F9" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="F10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="F11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="C15" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="B16" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="33"/>
+      <c r="D17" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="34"/>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="B19" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="C24" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="B25" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="37"/>
+      <c r="D26" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="38"/>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="B28" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" s="24"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="C34" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="C35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="B36" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="B37" s="37"/>
+      <c r="D37" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="38"/>
+      <c r="D38" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="B39" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="28"/>
+    </row>
+    <row r="40" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="B40" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="29"/>
+    </row>
+    <row r="41" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="D41" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="C42" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" s="31"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="C48" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="C49" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="B50" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="40"/>
+      <c r="D51" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="41"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="B53" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="29"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="C54" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="C62" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="C63" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="43"/>
+    </row>
+    <row r="64" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="B64" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="43"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="40"/>
+      <c r="D65" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="43"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="41"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="43"/>
+    </row>
+    <row r="67" spans="2:5" ht="18.600000000000001" thickBot="1">
+      <c r="B67" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="43"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="C68" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="43"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E62:E68"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/JSP/JSP게시판만들기.xlsx
+++ b/JSP/JSP게시판만들기.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\1218\JSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\CCPAPA\JSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A231498-BB49-4078-8928-6DBDC63C7965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83D90AE-67A1-4F6F-B15F-7E43388FEF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="4" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
   </bookViews>
   <sheets>
     <sheet name="환경설정" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="웰컴파일리스트" sheetId="1" r:id="rId3"/>
     <sheet name="웹서버,웹어플리케이션서버" sheetId="4" r:id="rId4"/>
     <sheet name="stateless" sheetId="5" r:id="rId5"/>
+    <sheet name="헤더와바디,MIME" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">웰컴파일리스트!$A$1:$P$60</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="165">
   <si>
     <t>Localhost:8080의 해당 폴더</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,23 +655,219 @@
     <t>단점: 서버 입장에선 매번 새로운 사람으로 인식이 되버림(끊었다 연결했다하기때문)</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>http통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더,바디가 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.avi</t>
+  </si>
+  <si>
+    <t>a.avi 해석</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Byte Strem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①시리얼 라이러블(직렬화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②역직렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>01101000　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→　？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a.avi　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01101000</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>모름</t>
+  </si>
+  <si>
+    <t>뭐로 변환 해야 할 지를</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 때, 파일 응답 부분을 자세히 보면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서,</t>
+  </si>
+  <si>
+    <t>헤더 와 바디가 필요함</t>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avi파일 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>01101000　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a.avi</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바디를 헤더에 기재된 파일형식으로 역직렬화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIME타입이라함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(파일 형태를 알려주는 부분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키 : 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더 부분을 자세히 보면, 맵 형태로 들어가있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Type : avi파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIME타입 표를 참고해 avi파일을 지칭하는 명칭으로 기재하면됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Content-Type : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video/x-msvideo</t>
+  </si>
+  <si>
+    <t>최종 정리를 하면,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.avi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.avi의 헤더를 읽음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01101000　→　a.avi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직렬화 해서 보냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.avi　→　01101000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바디를 변환함(역직렬화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -684,7 +881,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -722,6 +919,14 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -792,7 +997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -925,13 +1130,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,21 +1262,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1058,15 +1316,81 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1256,8 +1580,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="701040" y="12573000"/>
-          <a:ext cx="10467975" cy="2638425"/>
+          <a:off x="704850" y="11525250"/>
+          <a:ext cx="10639425" cy="2428875"/>
           <a:chOff x="704850" y="11525250"/>
           <a:chExt cx="10639425" cy="2428875"/>
         </a:xfrm>
@@ -2010,8 +2334,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="701040" y="16002000"/>
-          <a:ext cx="11715508" cy="5620471"/>
+          <a:off x="704850" y="14668500"/>
+          <a:ext cx="11917438" cy="5163271"/>
           <a:chOff x="704850" y="14668500"/>
           <a:chExt cx="11917438" cy="5163271"/>
         </a:xfrm>
@@ -2388,8 +2712,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="701040" y="30403800"/>
-          <a:ext cx="1954804" cy="5801468"/>
+          <a:off x="704850" y="27870150"/>
+          <a:ext cx="1962424" cy="5325218"/>
           <a:chOff x="704850" y="27870150"/>
           <a:chExt cx="1962424" cy="5325218"/>
         </a:xfrm>
@@ -2559,8 +2883,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="719978" y="720539"/>
-          <a:ext cx="6373345" cy="3530974"/>
+          <a:off x="731184" y="729504"/>
+          <a:ext cx="6474198" cy="3584762"/>
           <a:chOff x="685800" y="209550"/>
           <a:chExt cx="9583487" cy="4067743"/>
         </a:xfrm>
@@ -2755,8 +3079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="672353" y="5737412"/>
-          <a:ext cx="7612293" cy="2827084"/>
+          <a:off x="683559" y="5827059"/>
+          <a:ext cx="7735558" cy="2867425"/>
           <a:chOff x="683559" y="5827059"/>
           <a:chExt cx="7735558" cy="2867425"/>
         </a:xfrm>
@@ -3007,8 +3331,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="728382" y="13476194"/>
-          <a:ext cx="4997824" cy="3263153"/>
+          <a:off x="739588" y="13682382"/>
+          <a:ext cx="5076265" cy="3316942"/>
           <a:chOff x="739588" y="13682382"/>
           <a:chExt cx="5076265" cy="3316942"/>
         </a:xfrm>
@@ -4444,8 +4768,732 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240A8BA3-69AF-424A-A364-8731270D704A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1381125" y="314325"/>
+          <a:ext cx="685800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95EEC92-D919-461B-9B4F-02C12E0BFAB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2196465" y="1171575"/>
+          <a:ext cx="1442085" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C21D5B-B87B-44CF-94DF-35352B2875E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2196466" y="1817370"/>
+          <a:ext cx="1461134" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD3991E-422A-4ED5-A986-24CEED28FA7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2286000" y="3112770"/>
+          <a:ext cx="1457325" cy="430530"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECC16B9-5A7A-4728-81CA-C28F32D37B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="6410325"/>
+          <a:ext cx="9526" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EB1211-801E-462A-96A4-0902522C9E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="5029200"/>
+          <a:ext cx="1495425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF74E55-C070-41C5-9EF7-B57DB7EBA03E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="5248275"/>
+          <a:ext cx="1495425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="직사각형 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD96B368-7F21-4957-AD48-D6212F40AB6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="8324850"/>
+          <a:ext cx="647700" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4110C5A-E45E-4C5A-AF25-A8B46E83FC6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="8524875"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="직사각형 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F122AA3C-0AD1-403D-B556-4B2B82108334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="9820275"/>
+          <a:ext cx="1219200" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6702B2D3-E2A5-4704-A440-BD2506C356FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="31" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1895475" y="8991600"/>
+          <a:ext cx="371476" cy="928688"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C93AFF25-7F95-42C6-960B-62BC870CDF69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2282190" y="10810875"/>
+          <a:ext cx="1442085" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED7FFDC-48D2-4C7B-9EFE-2EB866DDA6B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2282191" y="11456670"/>
+          <a:ext cx="1461134" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4747,7 +5795,7 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -4775,10 +5823,10 @@
       <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="5" width="9.19921875" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" customWidth="1"/>
+    <col min="1" max="5" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
@@ -4993,20 +6041,20 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="4.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="4.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="51" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -5014,7 +6062,7 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="20"/>
+      <c r="C3" s="51"/>
       <c r="G3" s="6" t="s">
         <v>26</v>
       </c>
@@ -5065,14 +6113,14 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="51" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -5083,7 +6131,7 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="C13" s="20"/>
+      <c r="C13" s="51"/>
       <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
@@ -5143,7 +6191,7 @@
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="53" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -5157,7 +6205,7 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="23"/>
+      <c r="C24" s="54"/>
       <c r="G24" s="8" t="s">
         <v>24</v>
       </c>
@@ -5347,10 +6395,10 @@
       <c r="D52" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="19"/>
+      <c r="G52" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5371,29 +6419,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63E0985-F298-469F-975F-E1A282A83250}">
   <dimension ref="A2:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5401,156 +6449,156 @@
       <c r="A5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="D7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="D7" s="19"/>
+      <c r="F7" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75">
       <c r="A13" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="C15" s="24" t="s">
+    <row r="15" spans="1:7" ht="17.25" thickBot="1">
+      <c r="C15" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="B16" s="32" t="s">
+    <row r="16" spans="1:7" ht="17.25" thickBot="1">
+      <c r="B16" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="B17" s="33"/>
-      <c r="D17" s="27" t="s">
+      <c r="B17" s="28"/>
+      <c r="D17" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="B18" s="34"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="B19" s="35" t="s">
+      <c r="B18" s="29"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1">
+      <c r="B19" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="C21" s="25"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="C24" s="24" t="s">
+    <row r="24" spans="1:4" ht="17.25" thickBot="1">
+      <c r="C24" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="36" t="s">
+    <row r="25" spans="1:4" ht="17.25" thickBot="1">
+      <c r="B25" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="37"/>
-      <c r="D26" s="27" t="s">
+      <c r="B26" s="32"/>
+      <c r="D26" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="38"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="B28" s="35" t="s">
+      <c r="B27" s="33"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickBot="1">
+      <c r="B28" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5558,68 +6606,68 @@
       <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="B33" s="24"/>
+      <c r="B33" s="19"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="C35" s="24" t="s">
+    <row r="35" spans="1:5" ht="17.25" thickBot="1">
+      <c r="C35" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="B36" s="36" t="s">
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B36" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="B37" s="37"/>
-      <c r="D37" s="26" t="s">
+    <row r="37" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B37" s="32"/>
+      <c r="D37" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="B38" s="38"/>
-      <c r="D38" s="27" t="s">
+      <c r="B38" s="33"/>
+      <c r="D38" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="B39" s="35" t="s">
+    <row r="39" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B39" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="28"/>
-    </row>
-    <row r="40" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="B40" s="24" t="s">
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B40" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="D41" s="30" t="s">
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" thickBot="1">
+      <c r="D41" s="25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5627,69 +6675,69 @@
       <c r="A44" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="B46" s="31" t="s">
+    <row r="46" spans="1:5" ht="18.75">
+      <c r="B46" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="B47" s="31"/>
+    <row r="47" spans="1:5" ht="18.75">
+      <c r="B47" s="26"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="C49" s="24" t="s">
+    <row r="49" spans="1:5" ht="17.25" thickBot="1">
+      <c r="C49" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="B50" s="39" t="s">
+    <row r="50" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B50" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="B51" s="40"/>
-      <c r="D51" s="27" t="s">
+      <c r="B51" s="35"/>
+      <c r="D51" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="B52" s="41"/>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="B53" s="35" t="s">
+      <c r="B52" s="36"/>
+      <c r="D52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B53" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="29"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="19" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5697,80 +6745,80 @@
       <c r="A59" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="19" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="C63" s="24" t="s">
+    <row r="63" spans="1:5" ht="17.25" thickBot="1">
+      <c r="C63" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="43"/>
-    </row>
-    <row r="64" spans="1:5" ht="18.600000000000001" thickBot="1">
-      <c r="B64" s="39" t="s">
+      <c r="E63" s="56"/>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B64" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E64" s="43"/>
+      <c r="E64" s="56"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="40"/>
-      <c r="D65" s="27" t="s">
+      <c r="B65" s="35"/>
+      <c r="D65" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E65" s="43"/>
+      <c r="E65" s="56"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="41"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="43"/>
-    </row>
-    <row r="67" spans="2:5" ht="18.600000000000001" thickBot="1">
-      <c r="B67" s="35" t="s">
+      <c r="B66" s="36"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="56"/>
+    </row>
+    <row r="67" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B67" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="43"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="56"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E68" s="43"/>
+      <c r="E68" s="56"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="19" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="19" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5783,4 +6831,340 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73D442A-5901-4ED4-9490-61ED92138643}">
+  <dimension ref="A2:E67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17.25" thickBot="1"/>
+    <row r="5" spans="2:5" ht="17.25" thickBot="1">
+      <c r="C5" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B6" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="35"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="36"/>
+      <c r="C8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B9" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17.25" thickBot="1">
+      <c r="C11" s="38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="C12" s="43"/>
+    </row>
+    <row r="13" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="D14" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="58"/>
+    </row>
+    <row r="15" spans="2:5" ht="17.25" thickBot="1">
+      <c r="D15" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="60"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B19" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="24" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B24" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B27" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="46">
+        <v>1101000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B30" s="42"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1">
+      <c r="C31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="41"/>
+    </row>
+    <row r="35" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B35" s="42"/>
+    </row>
+    <row r="37" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B38" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B40" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="17.25" thickBot="1"/>
+    <row r="44" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B44" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B47" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="17.25" thickBot="1">
+      <c r="C50" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B51" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="35"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="36"/>
+      <c r="C53" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="23"/>
+    </row>
+    <row r="54" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B54" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="17.25" thickBot="1">
+      <c r="C55" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="C56" s="40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="17.25" thickBot="1">
+      <c r="C57" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B58" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B59" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B62" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B64" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="41"/>
+    </row>
+    <row r="67" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B67" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/JSP/JSP게시판만들기.xlsx
+++ b/JSP/JSP게시판만들기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\CCPAPA\JSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83D90AE-67A1-4F6F-B15F-7E43388FEF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70479BC3-FA62-42AA-B92A-4D7B04E517A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
   </bookViews>
   <sheets>
     <sheet name="환경설정" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="웹서버,웹어플리케이션서버" sheetId="4" r:id="rId4"/>
     <sheet name="stateless" sheetId="5" r:id="rId5"/>
     <sheet name="헤더와바디,MIME" sheetId="6" r:id="rId6"/>
+    <sheet name="MIME타입 코딩실습" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">웰컴파일리스트!$A$1:$P$60</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="222">
   <si>
     <t>Localhost:8080의 해당 폴더</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -849,6 +850,255 @@
   </si>
   <si>
     <t>바디를 변환함(역직렬화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청주소:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:8080/blog/test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 요청할 때 뭐가 필요한지를 보내야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키 = food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버가 데이터를 주는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값 = 임의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키 = method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값 = 음식레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식 레시피를 저장 하려는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾는것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식 레시피를 찾아오려는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 서버에 데이터를 보낼 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x-www-form-urlencoded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포스트이기에 브라우저로 요청할 수가 없다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라우저는 서버에서 받아오는 걸 반영하는 것이기 때문에 반대로 서버에 주는 것에 대해선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 할 수가 없기에 postman이란 프로그램을 사용해 값을 확인해본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트맨 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음과 같이 src에 패키지와 Servlet파일을 작성해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안필요하다(커리스트링으로 요청하란 소리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요하다(데이터를 바디로 보내란 소리(그래야 헤더보고 바디걸 역직렬화 할거니까))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST 즉 값을 서버에 입력할 것이기 때무에 doPost함수를 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/plain(평문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/html 이 기본형 이기는 하나 이번 프로젝트에선 plain을 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html의 경우라면 응답코드 작성시 index.jsp등 html관련 파일에 링크를 걸어주게 되는 것이고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/plain의 경우 내가 그냥 출력문을 입력해주는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 = 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postman Send를 통해 insert 실시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT되 었기 때문에 이하의 문장이 실행되고 out.println(result);로 결과값 1이 출력됨을 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종적으로 결과 값에 따라 값 또는 에러코드가 출력 되도록 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 코드또한 json 형태로 수정한다면 다음과 같다. Json은 맵형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API파일(JSON형식 으로 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 INSERT된 레코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"error":"fail"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"food":    ,"method":    }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 코드표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 : 정상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 : 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 : ~~~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 서버에서 데이터를 받을 땐 Content-Type을 지정해 줄 필요가 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 서버는 이미 뭘 요청 할 지 알고 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 데이터를 줄 땐 무조건 Content-Type을 지정 해 줘야 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⇒기본적으로 html로 읽기 때문에 Content-Type을 지정해서 뭐로 읽을지를 지정해 줘야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +1179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,8 +1246,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1198,13 +1454,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1387,6 +1836,150 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5492,6 +6085,2132 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE5BCAC-3418-421A-8147-B7A20AD6902F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="9963150"/>
+          <a:ext cx="828675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9150ECC3-A3A9-4081-968E-CCE3B05E945F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="10001250"/>
+          <a:ext cx="819150" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="그룹 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8934B67-1351-4892-BC74-AD967FA22C2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="323849" y="13087350"/>
+          <a:ext cx="14306551" cy="6219825"/>
+          <a:chOff x="695324" y="5314950"/>
+          <a:chExt cx="14220826" cy="6219825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="28" name="그룹 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E31E168-9A21-40EA-BF02-CF2B3074302F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="695324" y="5314950"/>
+            <a:ext cx="13775073" cy="5639587"/>
+            <a:chOff x="695324" y="5314950"/>
+            <a:chExt cx="13775073" cy="5639587"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="그룹 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAD7463-F09B-4652-93AA-57457F171149}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="695324" y="5314950"/>
+              <a:ext cx="13775073" cy="5639587"/>
+              <a:chOff x="695324" y="5314950"/>
+              <a:chExt cx="13775073" cy="5639587"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="8" name="그림 7">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728FA500-FE99-4CEA-AF6E-EA131D4FE143}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="695325" y="5314950"/>
+                <a:ext cx="13775072" cy="5639587"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="9" name="직사각형 8">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA429A8-B19D-4053-9C94-CA541C3E0EB1}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="723899" y="7524750"/>
+                <a:ext cx="2066925" cy="228600"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="10" name="직사각형 9">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874A5BCB-7DC1-4FF1-A208-3A350165755E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="752474" y="8153400"/>
+                <a:ext cx="2066925" cy="228600"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="11" name="직사각형 10">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5D886F-46ED-4390-85DA-BD96EAD2B46B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="742949" y="9429749"/>
+                <a:ext cx="2066926" cy="847725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="12" name="직사각형 11">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4F9D5A-C4D1-43D7-BF18-FB7B210279BD}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="695324" y="10458449"/>
+                <a:ext cx="2124076" cy="457201"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="직사각형 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E31FD8-ED9B-4DC6-8763-849830407591}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6448424" y="8315325"/>
+              <a:ext cx="5419726" cy="942975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="직사각형 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECB9676-1126-4B66-8BAF-745FBBF8F9E0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8039099" y="8039101"/>
+              <a:ext cx="1562101" cy="228599"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="직사각형 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799CD116-02F3-44AB-9C37-24570852C7E4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9191624" y="7686676"/>
+              <a:ext cx="476251" cy="238124"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="직사각형 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26DC1B5-70FD-4F45-9C4F-D90835FDD499}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6581774" y="7677151"/>
+              <a:ext cx="609601" cy="238124"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="직사각형 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D7FBD6-51B2-44D5-8FC1-3DDC618D90F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6562725" y="7191374"/>
+              <a:ext cx="647700" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="직사각형 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D7642E6-41B1-4888-B8F5-09D9EEB21B16}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7658100" y="7200899"/>
+              <a:ext cx="1524000" cy="361951"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="직사각형 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F519EEF-8F1E-444C-BD60-F386C20FCDC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13401675" y="7191374"/>
+              <a:ext cx="952500" cy="371476"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="순서도: 처리 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79E6EDD-0F0A-4573-B7EA-CE0DFB4FFD4F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2847975" y="10467975"/>
+            <a:ext cx="3562350" cy="1066800"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>Content_Tyme</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>이 없다면 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>MIME</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>이 없다는 뜻이고 이는 직렬화된 데이터</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>(0110001)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>을 뭘로 역직렬화 할 지 알려주는 것이 없다는 것이므로 바로 커리스트링으로 보내면된다</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t>. (Params</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>로 키 값을 입력하면됨</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="순서도: 처리 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D849E7-DDB5-4755-8B91-EF7A8A61B6CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13392150" y="7600950"/>
+            <a:ext cx="1524000" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>서버에 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t>INSERT </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>하게됨</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2000249</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="직사각형 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1DB201-E339-4324-ADDD-6A19D5A85F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152524" y="1143000"/>
+          <a:ext cx="1533525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59C7432-B831-470B-8195-02A70CBABC1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="1390650"/>
+          <a:ext cx="2019300" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>211806</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="그룹 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF23DB04-AA2F-4F3E-B4DA-F1044891BC95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="314325" y="257175"/>
+          <a:ext cx="16251906" cy="5610225"/>
+          <a:chOff x="685800" y="257175"/>
+          <a:chExt cx="16166181" cy="5639587"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="40" name="그룹 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C426D3-409D-49EF-9AA6-D5EE88A9A7D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="685800" y="257175"/>
+            <a:ext cx="16166181" cy="5639587"/>
+            <a:chOff x="685800" y="257175"/>
+            <a:chExt cx="16166181" cy="5639587"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="그림 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6330BCED-4F6B-417B-86F9-DAC4E4004341}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="257175"/>
+              <a:ext cx="16166181" cy="5639587"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="39" name="그룹 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63395AE8-AC86-4DC4-8E97-C295C62D9C42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1733550" y="1347788"/>
+              <a:ext cx="3509741" cy="4471987"/>
+              <a:chOff x="1733550" y="1347788"/>
+              <a:chExt cx="3509741" cy="4471987"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="36" name="그룹 35">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010D4357-6D61-4888-A34D-250CECD38D13}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="1733550" y="1619250"/>
+                <a:ext cx="3509741" cy="4200525"/>
+                <a:chOff x="1733550" y="1619250"/>
+                <a:chExt cx="3509741" cy="4200525"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="34" name="그림 33">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E38DBF-1DAD-47D2-8F09-41760887FBBB}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1733550" y="1619250"/>
+                  <a:ext cx="3509741" cy="4200525"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+            </xdr:pic>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="35" name="직사각형 34">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B80751-4DE1-4C2A-B357-F715E9918A5A}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3867150" y="3752850"/>
+                  <a:ext cx="1247776" cy="180975"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="28575">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378197B0-DB81-4B77-BEC4-10A83314F8D7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="33" idx="3"/>
+                <a:endCxn id="35" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2686049" y="1347788"/>
+                <a:ext cx="1804989" cy="2405062"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="38100">
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="직사각형 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CB45F5-EDF5-4456-BBDF-5C1696315445}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7772401" y="1333500"/>
+            <a:ext cx="2990850" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>이 어노테이션은 맵핑 해주는 의미라 보면됨</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>525421</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>200228</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="그룹 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001CA8EA-0A64-4A65-8F77-053E2E3279BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="314325" y="19926300"/>
+          <a:ext cx="11079121" cy="1457528"/>
+          <a:chOff x="685800" y="17411700"/>
+          <a:chExt cx="11079121" cy="1457528"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="49" name="그룹 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A52287B-4231-47CA-AC2C-B3C052F57588}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="685800" y="17411700"/>
+            <a:ext cx="11079121" cy="1457528"/>
+            <a:chOff x="685800" y="17411700"/>
+            <a:chExt cx="11079121" cy="1457528"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="46" name="그림 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC1E23C-049B-4956-BCBB-0A6B2B29BD4A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="17411700"/>
+              <a:ext cx="11079121" cy="1457528"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="순서도: 처리 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D944330-5EA3-4FC1-A06A-7447CE668FE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3924300" y="17878424"/>
+              <a:ext cx="3676650" cy="657225"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartProcess">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                <a:t>필요 없다</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+                <a:t>. </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                <a:t>이미 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+                <a:t>x-www-form-urlencoded</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+                <a:t>라고 알려 줬으니까</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="직사각형 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114826A1-E927-4256-9305-32B57ABC42D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1419225" y="17916526"/>
+            <a:ext cx="2457450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>17849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="그림 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8D2261-BDE0-4D28-8ED9-8082845EE0FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="10906125"/>
+          <a:ext cx="2847975" cy="436949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>7581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="그림 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8387B4-FCE5-47B6-8C27-BC88D5EB56E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476501" y="11534775"/>
+          <a:ext cx="3429000" cy="855306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95971</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>124193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D6B146-63EE-4768-8B4B-5EF652BAF81B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="21602700"/>
+          <a:ext cx="5163271" cy="2638793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>181255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC5C699-E1E8-400F-B8F5-45CF109959F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323849" y="24965025"/>
+          <a:ext cx="5362575" cy="4991380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95971</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>124193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="그림 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC77BC0B-3691-47F2-93F9-99507CAA673D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="34594800"/>
+          <a:ext cx="5163271" cy="2638793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163038</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>162503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="그림 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEF6B5C-4C1F-459B-8B68-5A1A9471C4C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="30194250"/>
+          <a:ext cx="7973538" cy="4143953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>486550</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>86234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A63DB05-B58C-488D-A60F-13B15699D844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="37738050"/>
+          <a:ext cx="5553850" cy="3648584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="직선 화살표 연결선 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FC0BD2-E82F-46A2-9BFD-BA43E618733C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="9963150"/>
+          <a:ext cx="828675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="직선 화살표 연결선 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97D5966-8BC4-4C1F-B258-400733321288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="10001250"/>
+          <a:ext cx="819150" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2847975" cy="436949"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="그림 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF078F50-B832-4E30-8664-4C82CA0349B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="10906125"/>
+          <a:ext cx="2847975" cy="436949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3429000" cy="855306"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="그림 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7060FFD7-1C82-4060-8AA5-C616EB5C4FCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476501" y="11534775"/>
+          <a:ext cx="3429000" cy="855306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>486742</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>133866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="그림 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839987D1-3E08-4955-8CD8-9FF4341A9D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="49625250"/>
+          <a:ext cx="6925642" cy="3696216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>102033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="그림 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37923F7-DD82-4C7A-900A-1B53BF5D89A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="53397151"/>
+          <a:ext cx="6905625" cy="3664382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -6837,7 +9556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73D442A-5901-4ED4-9490-61ED92138643}">
   <dimension ref="A2:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -7167,4 +9886,1130 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E513B61-14CE-4D7C-A8E9-82D3CC888BCA}">
+  <dimension ref="A1:M278"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="C281" sqref="C281"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="41"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="41"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="91"/>
+      <c r="C39" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="91"/>
+      <c r="C40" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="41"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="41"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="75"/>
+      <c r="D48" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="B49" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="75"/>
+      <c r="D49" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="B50" s="41"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="B51" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="97"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="B52" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="82"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="B53" s="41"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="99"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="B54" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="101"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="B55" s="41"/>
+      <c r="C55" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="85"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="B56" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="94"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="B57" s="41"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="69"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="B58" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="69"/>
+    </row>
+    <row r="59" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B59" s="42"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="71"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="B119" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B180" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="B200" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A202" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B202" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
+      <c r="B203" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C203" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D203" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="E203" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="F203" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="G203" s="78"/>
+      <c r="H203" s="78"/>
+      <c r="I203" s="78"/>
+      <c r="J203" s="78"/>
+      <c r="K203" s="79"/>
+      <c r="L203" s="61"/>
+      <c r="M203" s="61"/>
+    </row>
+    <row r="204" spans="1:13">
+      <c r="B204" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C204" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D204" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="E204" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="F204" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="G204" s="73"/>
+      <c r="H204" s="73"/>
+      <c r="I204" s="73"/>
+      <c r="J204" s="73"/>
+      <c r="K204" s="74"/>
+      <c r="L204" s="61"/>
+      <c r="M204" s="61"/>
+    </row>
+    <row r="205" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B205" s="41"/>
+      <c r="C205" s="68"/>
+      <c r="D205" s="68"/>
+      <c r="E205" s="68"/>
+      <c r="F205" s="68"/>
+      <c r="G205" s="68"/>
+      <c r="H205" s="68"/>
+      <c r="I205" s="68"/>
+      <c r="J205" s="68"/>
+      <c r="K205" s="69"/>
+      <c r="L205" s="61"/>
+      <c r="M205" s="61"/>
+    </row>
+    <row r="206" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B206" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="C206" s="68"/>
+      <c r="D206" s="68"/>
+      <c r="E206" s="68"/>
+      <c r="F206" s="68"/>
+      <c r="G206" s="68"/>
+      <c r="H206" s="68"/>
+      <c r="I206" s="68"/>
+      <c r="J206" s="68"/>
+      <c r="K206" s="69"/>
+      <c r="L206" s="61"/>
+      <c r="M206" s="61"/>
+    </row>
+    <row r="207" spans="1:13">
+      <c r="B207" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="C207" s="68"/>
+      <c r="D207" s="68"/>
+      <c r="E207" s="68"/>
+      <c r="F207" s="68"/>
+      <c r="G207" s="68"/>
+      <c r="H207" s="68"/>
+      <c r="I207" s="68"/>
+      <c r="J207" s="68"/>
+      <c r="K207" s="69"/>
+      <c r="L207" s="61"/>
+      <c r="M207" s="61"/>
+    </row>
+    <row r="208" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B208" s="41"/>
+      <c r="C208" s="68"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="68"/>
+      <c r="F208" s="68"/>
+      <c r="G208" s="68"/>
+      <c r="H208" s="68"/>
+      <c r="I208" s="68"/>
+      <c r="J208" s="68"/>
+      <c r="K208" s="69"/>
+      <c r="L208" s="61"/>
+      <c r="M208" s="61"/>
+    </row>
+    <row r="209" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B209" s="106" t="s">
+        <v>168</v>
+      </c>
+      <c r="C209" s="83"/>
+      <c r="D209" s="83"/>
+      <c r="E209" s="83"/>
+      <c r="F209" s="83"/>
+      <c r="G209" s="83"/>
+      <c r="H209" s="83"/>
+      <c r="I209" s="83"/>
+      <c r="J209" s="83"/>
+      <c r="K209" s="85"/>
+      <c r="L209" s="61"/>
+      <c r="M209" s="61"/>
+    </row>
+    <row r="210" spans="2:13">
+      <c r="B210" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="C210" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
+      <c r="F210" s="67"/>
+      <c r="G210" s="67"/>
+      <c r="H210" s="67"/>
+      <c r="I210" s="67"/>
+      <c r="J210" s="67"/>
+      <c r="K210" s="80"/>
+      <c r="L210" s="61"/>
+      <c r="M210" s="61"/>
+    </row>
+    <row r="211" spans="2:13">
+      <c r="B211" s="91"/>
+      <c r="C211" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
+      <c r="F211" s="67"/>
+      <c r="G211" s="67"/>
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="80"/>
+      <c r="L211" s="61"/>
+      <c r="M211" s="61"/>
+    </row>
+    <row r="212" spans="2:13">
+      <c r="B212" s="91"/>
+      <c r="C212" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="67"/>
+      <c r="G212" s="67"/>
+      <c r="H212" s="67"/>
+      <c r="I212" s="67"/>
+      <c r="J212" s="67"/>
+      <c r="K212" s="80"/>
+      <c r="L212" s="61"/>
+      <c r="M212" s="61"/>
+    </row>
+    <row r="213" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B213" s="41"/>
+      <c r="C213" s="75"/>
+      <c r="D213" s="75"/>
+      <c r="E213" s="75"/>
+      <c r="F213" s="75"/>
+      <c r="G213" s="75"/>
+      <c r="H213" s="75"/>
+      <c r="I213" s="75"/>
+      <c r="J213" s="75"/>
+      <c r="K213" s="76"/>
+      <c r="L213" s="61"/>
+      <c r="M213" s="61"/>
+    </row>
+    <row r="214" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B214" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="C214" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
+      <c r="F214" s="67"/>
+      <c r="G214" s="67"/>
+      <c r="H214" s="67"/>
+      <c r="I214" s="67"/>
+      <c r="J214" s="67"/>
+      <c r="K214" s="80"/>
+      <c r="L214" s="61"/>
+      <c r="M214" s="61"/>
+    </row>
+    <row r="215" spans="2:13">
+      <c r="B215" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="C215" s="75"/>
+      <c r="D215" s="75"/>
+      <c r="E215" s="75"/>
+      <c r="F215" s="75"/>
+      <c r="G215" s="75"/>
+      <c r="H215" s="75"/>
+      <c r="I215" s="75"/>
+      <c r="J215" s="75"/>
+      <c r="K215" s="76"/>
+      <c r="L215" s="61"/>
+      <c r="M215" s="61"/>
+    </row>
+    <row r="216" spans="2:13">
+      <c r="B216" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C216" s="75"/>
+      <c r="D216" s="75"/>
+      <c r="E216" s="75"/>
+      <c r="F216" s="75"/>
+      <c r="G216" s="75"/>
+      <c r="H216" s="75"/>
+      <c r="I216" s="75"/>
+      <c r="J216" s="75"/>
+      <c r="K216" s="76"/>
+      <c r="L216" s="61"/>
+      <c r="M216" s="61"/>
+    </row>
+    <row r="217" spans="2:13">
+      <c r="B217" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C217" s="75"/>
+      <c r="D217" s="75"/>
+      <c r="E217" s="75"/>
+      <c r="F217" s="75"/>
+      <c r="G217" s="75"/>
+      <c r="H217" s="75"/>
+      <c r="I217" s="75"/>
+      <c r="J217" s="75"/>
+      <c r="K217" s="76"/>
+      <c r="L217" s="61"/>
+      <c r="M217" s="61"/>
+    </row>
+    <row r="218" spans="2:13">
+      <c r="B218" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C218" s="75"/>
+      <c r="D218" s="75"/>
+      <c r="E218" s="75"/>
+      <c r="F218" s="75"/>
+      <c r="G218" s="75"/>
+      <c r="H218" s="75"/>
+      <c r="I218" s="75"/>
+      <c r="J218" s="75"/>
+      <c r="K218" s="76"/>
+      <c r="L218" s="61"/>
+      <c r="M218" s="61"/>
+    </row>
+    <row r="219" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B219" s="41"/>
+      <c r="C219" s="75"/>
+      <c r="D219" s="75"/>
+      <c r="E219" s="75"/>
+      <c r="F219" s="75"/>
+      <c r="G219" s="75"/>
+      <c r="H219" s="75"/>
+      <c r="I219" s="75"/>
+      <c r="J219" s="75"/>
+      <c r="K219" s="76"/>
+      <c r="L219" s="61"/>
+      <c r="M219" s="61"/>
+    </row>
+    <row r="220" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B220" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="C220" s="75"/>
+      <c r="D220" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E220" s="67"/>
+      <c r="F220" s="67"/>
+      <c r="G220" s="67"/>
+      <c r="H220" s="67"/>
+      <c r="I220" s="67"/>
+      <c r="J220" s="67"/>
+      <c r="K220" s="80"/>
+      <c r="L220" s="61"/>
+      <c r="M220" s="61"/>
+    </row>
+    <row r="221" spans="2:13">
+      <c r="B221" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C221" s="75"/>
+      <c r="D221" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="E221" s="67"/>
+      <c r="F221" s="67"/>
+      <c r="G221" s="67"/>
+      <c r="H221" s="67"/>
+      <c r="I221" s="67"/>
+      <c r="J221" s="67"/>
+      <c r="K221" s="80"/>
+      <c r="L221" s="61"/>
+      <c r="M221" s="61"/>
+    </row>
+    <row r="222" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B222" s="41"/>
+      <c r="C222" s="68"/>
+      <c r="D222" s="68"/>
+      <c r="E222" s="68"/>
+      <c r="F222" s="68"/>
+      <c r="G222" s="68"/>
+      <c r="H222" s="68"/>
+      <c r="I222" s="68"/>
+      <c r="J222" s="68"/>
+      <c r="K222" s="69"/>
+      <c r="L222" s="61"/>
+      <c r="M222" s="61"/>
+    </row>
+    <row r="223" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B223" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C223" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="D223" s="96"/>
+      <c r="E223" s="96"/>
+      <c r="F223" s="96"/>
+      <c r="G223" s="96"/>
+      <c r="H223" s="96"/>
+      <c r="I223" s="96"/>
+      <c r="J223" s="96"/>
+      <c r="K223" s="97"/>
+    </row>
+    <row r="224" spans="2:13">
+      <c r="B224" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="C224" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="D224" s="81"/>
+      <c r="E224" s="81"/>
+      <c r="F224" s="81"/>
+      <c r="G224" s="81"/>
+      <c r="H224" s="81"/>
+      <c r="I224" s="81"/>
+      <c r="J224" s="81"/>
+      <c r="K224" s="82"/>
+    </row>
+    <row r="225" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B225" s="41"/>
+      <c r="C225" s="98"/>
+      <c r="D225" s="98"/>
+      <c r="E225" s="98"/>
+      <c r="F225" s="98"/>
+      <c r="G225" s="98"/>
+      <c r="H225" s="98"/>
+      <c r="I225" s="98"/>
+      <c r="J225" s="98"/>
+      <c r="K225" s="99"/>
+    </row>
+    <row r="226" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B226" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="C226" s="100"/>
+      <c r="D226" s="100"/>
+      <c r="E226" s="100"/>
+      <c r="F226" s="100"/>
+      <c r="G226" s="100"/>
+      <c r="H226" s="100"/>
+      <c r="I226" s="100"/>
+      <c r="J226" s="100"/>
+      <c r="K226" s="101"/>
+    </row>
+    <row r="227" spans="2:11">
+      <c r="B227" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="C227" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="D227" s="83"/>
+      <c r="E227" s="83"/>
+      <c r="F227" s="83"/>
+      <c r="G227" s="83"/>
+      <c r="H227" s="83"/>
+      <c r="I227" s="83"/>
+      <c r="J227" s="83"/>
+      <c r="K227" s="85"/>
+    </row>
+    <row r="228" spans="2:11">
+      <c r="B228" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="C228" s="93"/>
+      <c r="D228" s="93"/>
+      <c r="E228" s="93"/>
+      <c r="F228" s="93"/>
+      <c r="G228" s="93"/>
+      <c r="H228" s="93"/>
+      <c r="I228" s="93"/>
+      <c r="J228" s="93"/>
+      <c r="K228" s="94"/>
+    </row>
+    <row r="229" spans="2:11">
+      <c r="B229" s="41"/>
+      <c r="C229" s="68"/>
+      <c r="D229" s="68"/>
+      <c r="E229" s="68"/>
+      <c r="F229" s="68"/>
+      <c r="G229" s="68"/>
+      <c r="H229" s="68"/>
+      <c r="I229" s="68"/>
+      <c r="J229" s="68"/>
+      <c r="K229" s="69"/>
+    </row>
+    <row r="230" spans="2:11">
+      <c r="B230" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C230" s="68"/>
+      <c r="D230" s="68"/>
+      <c r="E230" s="68"/>
+      <c r="F230" s="68"/>
+      <c r="G230" s="68"/>
+      <c r="H230" s="68"/>
+      <c r="I230" s="68"/>
+      <c r="J230" s="68"/>
+      <c r="K230" s="69"/>
+    </row>
+    <row r="231" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B231" s="41"/>
+      <c r="C231" s="68"/>
+      <c r="D231" s="68"/>
+      <c r="E231" s="68"/>
+      <c r="F231" s="68"/>
+      <c r="G231" s="68"/>
+      <c r="H231" s="68"/>
+      <c r="I231" s="68"/>
+      <c r="J231" s="68"/>
+      <c r="K231" s="69"/>
+    </row>
+    <row r="232" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B232" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C232" s="61"/>
+      <c r="D232" s="61"/>
+      <c r="E232" s="61"/>
+      <c r="F232" s="61"/>
+      <c r="G232" s="61"/>
+      <c r="H232" s="61"/>
+      <c r="I232" s="61"/>
+      <c r="J232" s="61"/>
+      <c r="K232" s="62"/>
+    </row>
+    <row r="233" spans="2:11">
+      <c r="B233" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="C233" s="61"/>
+      <c r="D233" s="61"/>
+      <c r="E233" s="61"/>
+      <c r="F233" s="61"/>
+      <c r="G233" s="61"/>
+      <c r="H233" s="61"/>
+      <c r="I233" s="61"/>
+      <c r="J233" s="61"/>
+      <c r="K233" s="62"/>
+    </row>
+    <row r="234" spans="2:11">
+      <c r="B234" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C234" s="61"/>
+      <c r="D234" s="61"/>
+      <c r="E234" s="61"/>
+      <c r="F234" s="61"/>
+      <c r="G234" s="61"/>
+      <c r="H234" s="61"/>
+      <c r="I234" s="61"/>
+      <c r="J234" s="61"/>
+      <c r="K234" s="62"/>
+    </row>
+    <row r="235" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B235" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="C235" s="63"/>
+      <c r="D235" s="63"/>
+      <c r="E235" s="63"/>
+      <c r="F235" s="63"/>
+      <c r="G235" s="63"/>
+      <c r="H235" s="63"/>
+      <c r="I235" s="63"/>
+      <c r="J235" s="63"/>
+      <c r="K235" s="64"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B274" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="B275" s="108" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B277" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="B278" s="108" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="D220:K220"/>
+    <mergeCell ref="D221:K221"/>
+    <mergeCell ref="C223:K223"/>
+    <mergeCell ref="C224:K224"/>
+    <mergeCell ref="C227:K227"/>
+    <mergeCell ref="F204:K204"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="C210:K210"/>
+    <mergeCell ref="C211:K211"/>
+    <mergeCell ref="C212:K212"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="F203:K203"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="F32:K32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/JSP/JSP게시판만들기.xlsx
+++ b/JSP/JSP게시판만들기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\CCPAPA\JSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70479BC3-FA62-42AA-B92A-4D7B04E517A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0CA8D4-FF4D-4161-8543-BB3646E82F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
   </bookViews>
   <sheets>
     <sheet name="환경설정" sheetId="3" r:id="rId1"/>
@@ -1804,6 +1804,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1837,115 +1930,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1960,26 +1951,35 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8756,8 +8756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4ADC4E-52EF-4538-930D-D124844F4BBA}">
   <dimension ref="B2:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8773,7 +8773,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="82" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -8781,7 +8781,7 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="51"/>
+      <c r="C3" s="82"/>
       <c r="G3" s="6" t="s">
         <v>26</v>
       </c>
@@ -8832,14 +8832,14 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="82" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -8850,7 +8850,7 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="C13" s="51"/>
+      <c r="C13" s="82"/>
       <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
@@ -8910,7 +8910,7 @@
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="84" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -8924,7 +8924,7 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="54"/>
+      <c r="C24" s="85"/>
       <c r="G24" s="8" t="s">
         <v>24</v>
       </c>
@@ -9114,10 +9114,10 @@
       <c r="D52" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="50" t="s">
+      <c r="F52" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="50"/>
+      <c r="G52" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9138,8 +9138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63E0985-F298-469F-975F-E1A282A83250}">
   <dimension ref="A2:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:D54"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9482,7 +9482,7 @@
       <c r="C62" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="86" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9490,7 +9490,7 @@
       <c r="C63" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="56"/>
+      <c r="E63" s="87"/>
     </row>
     <row r="64" spans="1:5" ht="17.25" thickBot="1">
       <c r="B64" s="34" t="s">
@@ -9499,32 +9499,32 @@
       <c r="D64" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E64" s="56"/>
+      <c r="E64" s="87"/>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="35"/>
       <c r="D65" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E65" s="56"/>
+      <c r="E65" s="87"/>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="36"/>
       <c r="D66" s="23"/>
-      <c r="E66" s="56"/>
+      <c r="E66" s="87"/>
     </row>
     <row r="67" spans="2:5" ht="17.25" thickBot="1">
       <c r="B67" s="30" t="s">
         <v>115</v>
       </c>
       <c r="D67" s="24"/>
-      <c r="E67" s="56"/>
+      <c r="E67" s="87"/>
     </row>
     <row r="68" spans="2:5">
       <c r="C68" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E68" s="56"/>
+      <c r="E68" s="87"/>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="20" t="s">
@@ -9556,7 +9556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73D442A-5901-4ED4-9490-61ED92138643}">
   <dimension ref="A2:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -9628,16 +9628,16 @@
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="58"/>
+      <c r="E14" s="89"/>
     </row>
     <row r="15" spans="2:5" ht="17.25" thickBot="1">
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="60"/>
+      <c r="E15" s="91"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="40" t="s">
@@ -9892,7 +9892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E513B61-14CE-4D7C-A8E9-82D3CC888BCA}">
   <dimension ref="A1:M278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="C281" sqref="C281"/>
     </sheetView>
   </sheetViews>
@@ -9920,462 +9920,462 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="F31" s="77" t="s">
+      <c r="F31" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="F32" s="72" t="s">
+      <c r="F32" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="41"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="41"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="91"/>
-      <c r="C39" s="84" t="s">
+      <c r="B39" s="105"/>
+      <c r="C39" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="91"/>
-      <c r="C40" s="84" t="s">
+      <c r="B40" s="105"/>
+      <c r="C40" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="41"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="41"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="90" t="s">
+      <c r="B48" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="C48" s="75"/>
-      <c r="D48" s="67" t="s">
+      <c r="C48" s="60"/>
+      <c r="D48" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="67" t="s">
+      <c r="C49" s="60"/>
+      <c r="D49" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
     </row>
     <row r="50" spans="1:13">
       <c r="B50" s="41"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="96" t="s">
+      <c r="C51" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="97"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="96"/>
     </row>
     <row r="52" spans="1:13">
       <c r="B52" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="81" t="s">
+      <c r="C52" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="82"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="98"/>
     </row>
     <row r="53" spans="1:13">
       <c r="B53" s="41"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="99"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="72"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="B54" s="95" t="s">
+      <c r="B54" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="101"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="74"/>
     </row>
     <row r="55" spans="1:13">
       <c r="B55" s="41"/>
-      <c r="C55" s="83" t="s">
+      <c r="C55" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="85"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="100"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="94"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="69"/>
     </row>
     <row r="57" spans="1:13">
       <c r="B57" s="41"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="69"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="57"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="B58" s="95" t="s">
+      <c r="B58" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="69"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="57"/>
     </row>
     <row r="59" spans="1:13" ht="17.25" thickBot="1">
       <c r="B59" s="42"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="71"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="59"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="5" t="s">
@@ -10438,520 +10438,520 @@
       </c>
     </row>
     <row r="203" spans="1:13">
-      <c r="B203" s="88" t="s">
+      <c r="B203" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C203" s="86" t="s">
+      <c r="C203" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D203" s="65" t="s">
+      <c r="D203" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="E203" s="65" t="s">
+      <c r="E203" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="F203" s="77" t="s">
+      <c r="F203" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="G203" s="78"/>
-      <c r="H203" s="78"/>
-      <c r="I203" s="78"/>
-      <c r="J203" s="78"/>
-      <c r="K203" s="79"/>
-      <c r="L203" s="61"/>
-      <c r="M203" s="61"/>
+      <c r="G203" s="107"/>
+      <c r="H203" s="107"/>
+      <c r="I203" s="107"/>
+      <c r="J203" s="107"/>
+      <c r="K203" s="108"/>
+      <c r="L203" s="50"/>
+      <c r="M203" s="50"/>
     </row>
     <row r="204" spans="1:13">
-      <c r="B204" s="89" t="s">
+      <c r="B204" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="C204" s="87" t="s">
+      <c r="C204" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D204" s="66" t="s">
+      <c r="D204" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="E204" s="66" t="s">
+      <c r="E204" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="F204" s="72" t="s">
+      <c r="F204" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="G204" s="73"/>
-      <c r="H204" s="73"/>
-      <c r="I204" s="73"/>
-      <c r="J204" s="73"/>
-      <c r="K204" s="74"/>
-      <c r="L204" s="61"/>
-      <c r="M204" s="61"/>
+      <c r="G204" s="102"/>
+      <c r="H204" s="102"/>
+      <c r="I204" s="102"/>
+      <c r="J204" s="102"/>
+      <c r="K204" s="103"/>
+      <c r="L204" s="50"/>
+      <c r="M204" s="50"/>
     </row>
     <row r="205" spans="1:13" ht="17.25" thickBot="1">
       <c r="B205" s="41"/>
-      <c r="C205" s="68"/>
-      <c r="D205" s="68"/>
-      <c r="E205" s="68"/>
-      <c r="F205" s="68"/>
-      <c r="G205" s="68"/>
-      <c r="H205" s="68"/>
-      <c r="I205" s="68"/>
-      <c r="J205" s="68"/>
-      <c r="K205" s="69"/>
-      <c r="L205" s="61"/>
-      <c r="M205" s="61"/>
+      <c r="C205" s="56"/>
+      <c r="D205" s="56"/>
+      <c r="E205" s="56"/>
+      <c r="F205" s="56"/>
+      <c r="G205" s="56"/>
+      <c r="H205" s="56"/>
+      <c r="I205" s="56"/>
+      <c r="J205" s="56"/>
+      <c r="K205" s="57"/>
+      <c r="L205" s="50"/>
+      <c r="M205" s="50"/>
     </row>
     <row r="206" spans="1:13" ht="17.25" thickBot="1">
-      <c r="B206" s="106" t="s">
+      <c r="B206" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="C206" s="68"/>
-      <c r="D206" s="68"/>
-      <c r="E206" s="68"/>
-      <c r="F206" s="68"/>
-      <c r="G206" s="68"/>
-      <c r="H206" s="68"/>
-      <c r="I206" s="68"/>
-      <c r="J206" s="68"/>
-      <c r="K206" s="69"/>
-      <c r="L206" s="61"/>
-      <c r="M206" s="61"/>
+      <c r="C206" s="56"/>
+      <c r="D206" s="56"/>
+      <c r="E206" s="56"/>
+      <c r="F206" s="56"/>
+      <c r="G206" s="56"/>
+      <c r="H206" s="56"/>
+      <c r="I206" s="56"/>
+      <c r="J206" s="56"/>
+      <c r="K206" s="57"/>
+      <c r="L206" s="50"/>
+      <c r="M206" s="50"/>
     </row>
     <row r="207" spans="1:13">
-      <c r="B207" s="102" t="s">
+      <c r="B207" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="C207" s="68"/>
-      <c r="D207" s="68"/>
-      <c r="E207" s="68"/>
-      <c r="F207" s="68"/>
-      <c r="G207" s="68"/>
-      <c r="H207" s="68"/>
-      <c r="I207" s="68"/>
-      <c r="J207" s="68"/>
-      <c r="K207" s="69"/>
-      <c r="L207" s="61"/>
-      <c r="M207" s="61"/>
+      <c r="C207" s="56"/>
+      <c r="D207" s="56"/>
+      <c r="E207" s="56"/>
+      <c r="F207" s="56"/>
+      <c r="G207" s="56"/>
+      <c r="H207" s="56"/>
+      <c r="I207" s="56"/>
+      <c r="J207" s="56"/>
+      <c r="K207" s="57"/>
+      <c r="L207" s="50"/>
+      <c r="M207" s="50"/>
     </row>
     <row r="208" spans="1:13" ht="17.25" thickBot="1">
       <c r="B208" s="41"/>
-      <c r="C208" s="68"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="68"/>
-      <c r="F208" s="68"/>
-      <c r="G208" s="68"/>
-      <c r="H208" s="68"/>
-      <c r="I208" s="68"/>
-      <c r="J208" s="68"/>
-      <c r="K208" s="69"/>
-      <c r="L208" s="61"/>
-      <c r="M208" s="61"/>
+      <c r="C208" s="56"/>
+      <c r="D208" s="56"/>
+      <c r="E208" s="56"/>
+      <c r="F208" s="56"/>
+      <c r="G208" s="56"/>
+      <c r="H208" s="56"/>
+      <c r="I208" s="56"/>
+      <c r="J208" s="56"/>
+      <c r="K208" s="57"/>
+      <c r="L208" s="50"/>
+      <c r="M208" s="50"/>
     </row>
     <row r="209" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B209" s="106" t="s">
+      <c r="B209" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="C209" s="83"/>
-      <c r="D209" s="83"/>
-      <c r="E209" s="83"/>
-      <c r="F209" s="83"/>
-      <c r="G209" s="83"/>
-      <c r="H209" s="83"/>
-      <c r="I209" s="83"/>
-      <c r="J209" s="83"/>
-      <c r="K209" s="85"/>
-      <c r="L209" s="61"/>
-      <c r="M209" s="61"/>
+      <c r="C209" s="99"/>
+      <c r="D209" s="99"/>
+      <c r="E209" s="99"/>
+      <c r="F209" s="99"/>
+      <c r="G209" s="99"/>
+      <c r="H209" s="99"/>
+      <c r="I209" s="99"/>
+      <c r="J209" s="99"/>
+      <c r="K209" s="100"/>
+      <c r="L209" s="50"/>
+      <c r="M209" s="50"/>
     </row>
     <row r="210" spans="2:13">
-      <c r="B210" s="107" t="s">
+      <c r="B210" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="C210" s="84" t="s">
+      <c r="C210" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="D210" s="67"/>
-      <c r="E210" s="67"/>
-      <c r="F210" s="67"/>
-      <c r="G210" s="67"/>
-      <c r="H210" s="67"/>
-      <c r="I210" s="67"/>
-      <c r="J210" s="67"/>
-      <c r="K210" s="80"/>
-      <c r="L210" s="61"/>
-      <c r="M210" s="61"/>
+      <c r="D210" s="93"/>
+      <c r="E210" s="93"/>
+      <c r="F210" s="93"/>
+      <c r="G210" s="93"/>
+      <c r="H210" s="93"/>
+      <c r="I210" s="93"/>
+      <c r="J210" s="93"/>
+      <c r="K210" s="94"/>
+      <c r="L210" s="50"/>
+      <c r="M210" s="50"/>
     </row>
     <row r="211" spans="2:13">
-      <c r="B211" s="91"/>
-      <c r="C211" s="84" t="s">
+      <c r="B211" s="105"/>
+      <c r="C211" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="D211" s="67"/>
-      <c r="E211" s="67"/>
-      <c r="F211" s="67"/>
-      <c r="G211" s="67"/>
-      <c r="H211" s="67"/>
-      <c r="I211" s="67"/>
-      <c r="J211" s="67"/>
-      <c r="K211" s="80"/>
-      <c r="L211" s="61"/>
-      <c r="M211" s="61"/>
+      <c r="D211" s="93"/>
+      <c r="E211" s="93"/>
+      <c r="F211" s="93"/>
+      <c r="G211" s="93"/>
+      <c r="H211" s="93"/>
+      <c r="I211" s="93"/>
+      <c r="J211" s="93"/>
+      <c r="K211" s="94"/>
+      <c r="L211" s="50"/>
+      <c r="M211" s="50"/>
     </row>
     <row r="212" spans="2:13">
-      <c r="B212" s="91"/>
-      <c r="C212" s="84" t="s">
+      <c r="B212" s="105"/>
+      <c r="C212" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="D212" s="67"/>
-      <c r="E212" s="67"/>
-      <c r="F212" s="67"/>
-      <c r="G212" s="67"/>
-      <c r="H212" s="67"/>
-      <c r="I212" s="67"/>
-      <c r="J212" s="67"/>
-      <c r="K212" s="80"/>
-      <c r="L212" s="61"/>
-      <c r="M212" s="61"/>
+      <c r="D212" s="93"/>
+      <c r="E212" s="93"/>
+      <c r="F212" s="93"/>
+      <c r="G212" s="93"/>
+      <c r="H212" s="93"/>
+      <c r="I212" s="93"/>
+      <c r="J212" s="93"/>
+      <c r="K212" s="94"/>
+      <c r="L212" s="50"/>
+      <c r="M212" s="50"/>
     </row>
     <row r="213" spans="2:13" ht="17.25" thickBot="1">
       <c r="B213" s="41"/>
-      <c r="C213" s="75"/>
-      <c r="D213" s="75"/>
-      <c r="E213" s="75"/>
-      <c r="F213" s="75"/>
-      <c r="G213" s="75"/>
-      <c r="H213" s="75"/>
-      <c r="I213" s="75"/>
-      <c r="J213" s="75"/>
-      <c r="K213" s="76"/>
-      <c r="L213" s="61"/>
-      <c r="M213" s="61"/>
+      <c r="C213" s="60"/>
+      <c r="D213" s="60"/>
+      <c r="E213" s="60"/>
+      <c r="F213" s="60"/>
+      <c r="G213" s="60"/>
+      <c r="H213" s="60"/>
+      <c r="I213" s="60"/>
+      <c r="J213" s="60"/>
+      <c r="K213" s="61"/>
+      <c r="L213" s="50"/>
+      <c r="M213" s="50"/>
     </row>
     <row r="214" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B214" s="106" t="s">
+      <c r="B214" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="C214" s="84" t="s">
+      <c r="C214" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="D214" s="67"/>
-      <c r="E214" s="67"/>
-      <c r="F214" s="67"/>
-      <c r="G214" s="67"/>
-      <c r="H214" s="67"/>
-      <c r="I214" s="67"/>
-      <c r="J214" s="67"/>
-      <c r="K214" s="80"/>
-      <c r="L214" s="61"/>
-      <c r="M214" s="61"/>
+      <c r="D214" s="93"/>
+      <c r="E214" s="93"/>
+      <c r="F214" s="93"/>
+      <c r="G214" s="93"/>
+      <c r="H214" s="93"/>
+      <c r="I214" s="93"/>
+      <c r="J214" s="93"/>
+      <c r="K214" s="94"/>
+      <c r="L214" s="50"/>
+      <c r="M214" s="50"/>
     </row>
     <row r="215" spans="2:13">
-      <c r="B215" s="102" t="s">
+      <c r="B215" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="C215" s="75"/>
-      <c r="D215" s="75"/>
-      <c r="E215" s="75"/>
-      <c r="F215" s="75"/>
-      <c r="G215" s="75"/>
-      <c r="H215" s="75"/>
-      <c r="I215" s="75"/>
-      <c r="J215" s="75"/>
-      <c r="K215" s="76"/>
-      <c r="L215" s="61"/>
-      <c r="M215" s="61"/>
+      <c r="C215" s="60"/>
+      <c r="D215" s="60"/>
+      <c r="E215" s="60"/>
+      <c r="F215" s="60"/>
+      <c r="G215" s="60"/>
+      <c r="H215" s="60"/>
+      <c r="I215" s="60"/>
+      <c r="J215" s="60"/>
+      <c r="K215" s="61"/>
+      <c r="L215" s="50"/>
+      <c r="M215" s="50"/>
     </row>
     <row r="216" spans="2:13">
-      <c r="B216" s="90" t="s">
+      <c r="B216" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="C216" s="75"/>
-      <c r="D216" s="75"/>
-      <c r="E216" s="75"/>
-      <c r="F216" s="75"/>
-      <c r="G216" s="75"/>
-      <c r="H216" s="75"/>
-      <c r="I216" s="75"/>
-      <c r="J216" s="75"/>
-      <c r="K216" s="76"/>
-      <c r="L216" s="61"/>
-      <c r="M216" s="61"/>
+      <c r="C216" s="60"/>
+      <c r="D216" s="60"/>
+      <c r="E216" s="60"/>
+      <c r="F216" s="60"/>
+      <c r="G216" s="60"/>
+      <c r="H216" s="60"/>
+      <c r="I216" s="60"/>
+      <c r="J216" s="60"/>
+      <c r="K216" s="61"/>
+      <c r="L216" s="50"/>
+      <c r="M216" s="50"/>
     </row>
     <row r="217" spans="2:13">
-      <c r="B217" s="90" t="s">
+      <c r="B217" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="C217" s="75"/>
-      <c r="D217" s="75"/>
-      <c r="E217" s="75"/>
-      <c r="F217" s="75"/>
-      <c r="G217" s="75"/>
-      <c r="H217" s="75"/>
-      <c r="I217" s="75"/>
-      <c r="J217" s="75"/>
-      <c r="K217" s="76"/>
-      <c r="L217" s="61"/>
-      <c r="M217" s="61"/>
+      <c r="C217" s="60"/>
+      <c r="D217" s="60"/>
+      <c r="E217" s="60"/>
+      <c r="F217" s="60"/>
+      <c r="G217" s="60"/>
+      <c r="H217" s="60"/>
+      <c r="I217" s="60"/>
+      <c r="J217" s="60"/>
+      <c r="K217" s="61"/>
+      <c r="L217" s="50"/>
+      <c r="M217" s="50"/>
     </row>
     <row r="218" spans="2:13">
-      <c r="B218" s="90" t="s">
+      <c r="B218" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="C218" s="75"/>
-      <c r="D218" s="75"/>
-      <c r="E218" s="75"/>
-      <c r="F218" s="75"/>
-      <c r="G218" s="75"/>
-      <c r="H218" s="75"/>
-      <c r="I218" s="75"/>
-      <c r="J218" s="75"/>
-      <c r="K218" s="76"/>
-      <c r="L218" s="61"/>
-      <c r="M218" s="61"/>
+      <c r="C218" s="60"/>
+      <c r="D218" s="60"/>
+      <c r="E218" s="60"/>
+      <c r="F218" s="60"/>
+      <c r="G218" s="60"/>
+      <c r="H218" s="60"/>
+      <c r="I218" s="60"/>
+      <c r="J218" s="60"/>
+      <c r="K218" s="61"/>
+      <c r="L218" s="50"/>
+      <c r="M218" s="50"/>
     </row>
     <row r="219" spans="2:13" ht="17.25" thickBot="1">
       <c r="B219" s="41"/>
-      <c r="C219" s="75"/>
-      <c r="D219" s="75"/>
-      <c r="E219" s="75"/>
-      <c r="F219" s="75"/>
-      <c r="G219" s="75"/>
-      <c r="H219" s="75"/>
-      <c r="I219" s="75"/>
-      <c r="J219" s="75"/>
-      <c r="K219" s="76"/>
-      <c r="L219" s="61"/>
-      <c r="M219" s="61"/>
+      <c r="C219" s="60"/>
+      <c r="D219" s="60"/>
+      <c r="E219" s="60"/>
+      <c r="F219" s="60"/>
+      <c r="G219" s="60"/>
+      <c r="H219" s="60"/>
+      <c r="I219" s="60"/>
+      <c r="J219" s="60"/>
+      <c r="K219" s="61"/>
+      <c r="L219" s="50"/>
+      <c r="M219" s="50"/>
     </row>
     <row r="220" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B220" s="106" t="s">
+      <c r="B220" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C220" s="75"/>
-      <c r="D220" s="67" t="s">
+      <c r="C220" s="60"/>
+      <c r="D220" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="E220" s="67"/>
-      <c r="F220" s="67"/>
-      <c r="G220" s="67"/>
-      <c r="H220" s="67"/>
-      <c r="I220" s="67"/>
-      <c r="J220" s="67"/>
-      <c r="K220" s="80"/>
-      <c r="L220" s="61"/>
-      <c r="M220" s="61"/>
+      <c r="E220" s="93"/>
+      <c r="F220" s="93"/>
+      <c r="G220" s="93"/>
+      <c r="H220" s="93"/>
+      <c r="I220" s="93"/>
+      <c r="J220" s="93"/>
+      <c r="K220" s="94"/>
+      <c r="L220" s="50"/>
+      <c r="M220" s="50"/>
     </row>
     <row r="221" spans="2:13">
-      <c r="B221" s="102" t="s">
+      <c r="B221" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="C221" s="75"/>
-      <c r="D221" s="67" t="s">
+      <c r="C221" s="60"/>
+      <c r="D221" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="E221" s="67"/>
-      <c r="F221" s="67"/>
-      <c r="G221" s="67"/>
-      <c r="H221" s="67"/>
-      <c r="I221" s="67"/>
-      <c r="J221" s="67"/>
-      <c r="K221" s="80"/>
-      <c r="L221" s="61"/>
-      <c r="M221" s="61"/>
+      <c r="E221" s="93"/>
+      <c r="F221" s="93"/>
+      <c r="G221" s="93"/>
+      <c r="H221" s="93"/>
+      <c r="I221" s="93"/>
+      <c r="J221" s="93"/>
+      <c r="K221" s="94"/>
+      <c r="L221" s="50"/>
+      <c r="M221" s="50"/>
     </row>
     <row r="222" spans="2:13" ht="17.25" thickBot="1">
       <c r="B222" s="41"/>
-      <c r="C222" s="68"/>
-      <c r="D222" s="68"/>
-      <c r="E222" s="68"/>
-      <c r="F222" s="68"/>
-      <c r="G222" s="68"/>
-      <c r="H222" s="68"/>
-      <c r="I222" s="68"/>
-      <c r="J222" s="68"/>
-      <c r="K222" s="69"/>
-      <c r="L222" s="61"/>
-      <c r="M222" s="61"/>
+      <c r="C222" s="56"/>
+      <c r="D222" s="56"/>
+      <c r="E222" s="56"/>
+      <c r="F222" s="56"/>
+      <c r="G222" s="56"/>
+      <c r="H222" s="56"/>
+      <c r="I222" s="56"/>
+      <c r="J222" s="56"/>
+      <c r="K222" s="57"/>
+      <c r="L222" s="50"/>
+      <c r="M222" s="50"/>
     </row>
     <row r="223" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B223" s="106" t="s">
+      <c r="B223" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="C223" s="96" t="s">
+      <c r="C223" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="D223" s="96"/>
-      <c r="E223" s="96"/>
-      <c r="F223" s="96"/>
-      <c r="G223" s="96"/>
-      <c r="H223" s="96"/>
-      <c r="I223" s="96"/>
-      <c r="J223" s="96"/>
-      <c r="K223" s="97"/>
+      <c r="D223" s="95"/>
+      <c r="E223" s="95"/>
+      <c r="F223" s="95"/>
+      <c r="G223" s="95"/>
+      <c r="H223" s="95"/>
+      <c r="I223" s="95"/>
+      <c r="J223" s="95"/>
+      <c r="K223" s="96"/>
     </row>
     <row r="224" spans="2:13">
-      <c r="B224" s="102" t="s">
+      <c r="B224" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C224" s="81" t="s">
+      <c r="C224" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="D224" s="81"/>
-      <c r="E224" s="81"/>
-      <c r="F224" s="81"/>
-      <c r="G224" s="81"/>
-      <c r="H224" s="81"/>
-      <c r="I224" s="81"/>
-      <c r="J224" s="81"/>
-      <c r="K224" s="82"/>
+      <c r="D224" s="97"/>
+      <c r="E224" s="97"/>
+      <c r="F224" s="97"/>
+      <c r="G224" s="97"/>
+      <c r="H224" s="97"/>
+      <c r="I224" s="97"/>
+      <c r="J224" s="97"/>
+      <c r="K224" s="98"/>
     </row>
     <row r="225" spans="2:11" ht="17.25" thickBot="1">
       <c r="B225" s="41"/>
-      <c r="C225" s="98"/>
-      <c r="D225" s="98"/>
-      <c r="E225" s="98"/>
-      <c r="F225" s="98"/>
-      <c r="G225" s="98"/>
-      <c r="H225" s="98"/>
-      <c r="I225" s="98"/>
-      <c r="J225" s="98"/>
-      <c r="K225" s="99"/>
+      <c r="C225" s="71"/>
+      <c r="D225" s="71"/>
+      <c r="E225" s="71"/>
+      <c r="F225" s="71"/>
+      <c r="G225" s="71"/>
+      <c r="H225" s="71"/>
+      <c r="I225" s="71"/>
+      <c r="J225" s="71"/>
+      <c r="K225" s="72"/>
     </row>
     <row r="226" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B226" s="106" t="s">
+      <c r="B226" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="C226" s="100"/>
-      <c r="D226" s="100"/>
-      <c r="E226" s="100"/>
-      <c r="F226" s="100"/>
-      <c r="G226" s="100"/>
-      <c r="H226" s="100"/>
-      <c r="I226" s="100"/>
-      <c r="J226" s="100"/>
-      <c r="K226" s="101"/>
+      <c r="C226" s="73"/>
+      <c r="D226" s="73"/>
+      <c r="E226" s="73"/>
+      <c r="F226" s="73"/>
+      <c r="G226" s="73"/>
+      <c r="H226" s="73"/>
+      <c r="I226" s="73"/>
+      <c r="J226" s="73"/>
+      <c r="K226" s="74"/>
     </row>
     <row r="227" spans="2:11">
-      <c r="B227" s="102" t="s">
+      <c r="B227" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="C227" s="83" t="s">
+      <c r="C227" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="D227" s="83"/>
-      <c r="E227" s="83"/>
-      <c r="F227" s="83"/>
-      <c r="G227" s="83"/>
-      <c r="H227" s="83"/>
-      <c r="I227" s="83"/>
-      <c r="J227" s="83"/>
-      <c r="K227" s="85"/>
+      <c r="D227" s="99"/>
+      <c r="E227" s="99"/>
+      <c r="F227" s="99"/>
+      <c r="G227" s="99"/>
+      <c r="H227" s="99"/>
+      <c r="I227" s="99"/>
+      <c r="J227" s="99"/>
+      <c r="K227" s="100"/>
     </row>
     <row r="228" spans="2:11">
-      <c r="B228" s="103" t="s">
+      <c r="B228" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="C228" s="93"/>
-      <c r="D228" s="93"/>
-      <c r="E228" s="93"/>
-      <c r="F228" s="93"/>
-      <c r="G228" s="93"/>
-      <c r="H228" s="93"/>
-      <c r="I228" s="93"/>
-      <c r="J228" s="93"/>
-      <c r="K228" s="94"/>
+      <c r="C228" s="68"/>
+      <c r="D228" s="68"/>
+      <c r="E228" s="68"/>
+      <c r="F228" s="68"/>
+      <c r="G228" s="68"/>
+      <c r="H228" s="68"/>
+      <c r="I228" s="68"/>
+      <c r="J228" s="68"/>
+      <c r="K228" s="69"/>
     </row>
     <row r="229" spans="2:11">
       <c r="B229" s="41"/>
-      <c r="C229" s="68"/>
-      <c r="D229" s="68"/>
-      <c r="E229" s="68"/>
-      <c r="F229" s="68"/>
-      <c r="G229" s="68"/>
-      <c r="H229" s="68"/>
-      <c r="I229" s="68"/>
-      <c r="J229" s="68"/>
-      <c r="K229" s="69"/>
+      <c r="C229" s="56"/>
+      <c r="D229" s="56"/>
+      <c r="E229" s="56"/>
+      <c r="F229" s="56"/>
+      <c r="G229" s="56"/>
+      <c r="H229" s="56"/>
+      <c r="I229" s="56"/>
+      <c r="J229" s="56"/>
+      <c r="K229" s="57"/>
     </row>
     <row r="230" spans="2:11">
-      <c r="B230" s="103" t="s">
+      <c r="B230" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="C230" s="68"/>
-      <c r="D230" s="68"/>
-      <c r="E230" s="68"/>
-      <c r="F230" s="68"/>
-      <c r="G230" s="68"/>
-      <c r="H230" s="68"/>
-      <c r="I230" s="68"/>
-      <c r="J230" s="68"/>
-      <c r="K230" s="69"/>
+      <c r="C230" s="56"/>
+      <c r="D230" s="56"/>
+      <c r="E230" s="56"/>
+      <c r="F230" s="56"/>
+      <c r="G230" s="56"/>
+      <c r="H230" s="56"/>
+      <c r="I230" s="56"/>
+      <c r="J230" s="56"/>
+      <c r="K230" s="57"/>
     </row>
     <row r="231" spans="2:11" ht="17.25" thickBot="1">
       <c r="B231" s="41"/>
-      <c r="C231" s="68"/>
-      <c r="D231" s="68"/>
-      <c r="E231" s="68"/>
-      <c r="F231" s="68"/>
-      <c r="G231" s="68"/>
-      <c r="H231" s="68"/>
-      <c r="I231" s="68"/>
-      <c r="J231" s="68"/>
-      <c r="K231" s="69"/>
+      <c r="C231" s="56"/>
+      <c r="D231" s="56"/>
+      <c r="E231" s="56"/>
+      <c r="F231" s="56"/>
+      <c r="G231" s="56"/>
+      <c r="H231" s="56"/>
+      <c r="I231" s="56"/>
+      <c r="J231" s="56"/>
+      <c r="K231" s="57"/>
     </row>
     <row r="232" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B232" s="106" t="s">
+      <c r="B232" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="C232" s="61"/>
-      <c r="D232" s="61"/>
-      <c r="E232" s="61"/>
-      <c r="F232" s="61"/>
-      <c r="G232" s="61"/>
-      <c r="H232" s="61"/>
-      <c r="I232" s="61"/>
-      <c r="J232" s="61"/>
-      <c r="K232" s="62"/>
+      <c r="C232" s="50"/>
+      <c r="D232" s="50"/>
+      <c r="E232" s="50"/>
+      <c r="F232" s="50"/>
+      <c r="G232" s="50"/>
+      <c r="H232" s="50"/>
+      <c r="I232" s="50"/>
+      <c r="J232" s="50"/>
+      <c r="K232" s="51"/>
     </row>
     <row r="233" spans="2:11">
-      <c r="B233" s="105" t="s">
+      <c r="B233" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="C233" s="61"/>
-      <c r="D233" s="61"/>
-      <c r="E233" s="61"/>
-      <c r="F233" s="61"/>
-      <c r="G233" s="61"/>
-      <c r="H233" s="61"/>
-      <c r="I233" s="61"/>
-      <c r="J233" s="61"/>
-      <c r="K233" s="62"/>
+      <c r="C233" s="50"/>
+      <c r="D233" s="50"/>
+      <c r="E233" s="50"/>
+      <c r="F233" s="50"/>
+      <c r="G233" s="50"/>
+      <c r="H233" s="50"/>
+      <c r="I233" s="50"/>
+      <c r="J233" s="50"/>
+      <c r="K233" s="51"/>
     </row>
     <row r="234" spans="2:11">
-      <c r="B234" s="103" t="s">
+      <c r="B234" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="C234" s="61"/>
-      <c r="D234" s="61"/>
-      <c r="E234" s="61"/>
-      <c r="F234" s="61"/>
-      <c r="G234" s="61"/>
-      <c r="H234" s="61"/>
-      <c r="I234" s="61"/>
-      <c r="J234" s="61"/>
-      <c r="K234" s="62"/>
+      <c r="C234" s="50"/>
+      <c r="D234" s="50"/>
+      <c r="E234" s="50"/>
+      <c r="F234" s="50"/>
+      <c r="G234" s="50"/>
+      <c r="H234" s="50"/>
+      <c r="I234" s="50"/>
+      <c r="J234" s="50"/>
+      <c r="K234" s="51"/>
     </row>
     <row r="235" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B235" s="104" t="s">
+      <c r="B235" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="C235" s="63"/>
-      <c r="D235" s="63"/>
-      <c r="E235" s="63"/>
-      <c r="F235" s="63"/>
-      <c r="G235" s="63"/>
-      <c r="H235" s="63"/>
-      <c r="I235" s="63"/>
-      <c r="J235" s="63"/>
-      <c r="K235" s="64"/>
+      <c r="C235" s="52"/>
+      <c r="D235" s="52"/>
+      <c r="E235" s="52"/>
+      <c r="F235" s="52"/>
+      <c r="G235" s="52"/>
+      <c r="H235" s="52"/>
+      <c r="I235" s="52"/>
+      <c r="J235" s="52"/>
+      <c r="K235" s="53"/>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="5" t="s">
@@ -10962,7 +10962,7 @@
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="B275" s="108" t="s">
+      <c r="B275" s="80" t="s">
         <v>219</v>
       </c>
     </row>
@@ -10975,17 +10975,26 @@
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="B278" s="108" t="s">
+      <c r="B278" s="80" t="s">
         <v>221</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="D220:K220"/>
-    <mergeCell ref="D221:K221"/>
-    <mergeCell ref="C223:K223"/>
-    <mergeCell ref="C224:K224"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F203:K203"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C55:K55"/>
     <mergeCell ref="C227:K227"/>
     <mergeCell ref="F204:K204"/>
     <mergeCell ref="C209:K209"/>
@@ -10993,23 +11002,15 @@
     <mergeCell ref="C210:K210"/>
     <mergeCell ref="C211:K211"/>
     <mergeCell ref="C212:K212"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="F203:K203"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="D220:K220"/>
+    <mergeCell ref="D221:K221"/>
+    <mergeCell ref="C223:K223"/>
+    <mergeCell ref="C224:K224"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/JSP/JSP게시판만들기.xlsx
+++ b/JSP/JSP게시판만들기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\CCPAPA\JSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0CA8D4-FF4D-4161-8543-BB3646E82F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F4D61D-7B51-48C2-8F68-37C5F65A1667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
+    <workbookView xWindow="16305" yWindow="735" windowWidth="10290" windowHeight="14865" firstSheet="5" activeTab="7" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
   </bookViews>
   <sheets>
     <sheet name="환경설정" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="stateless" sheetId="5" r:id="rId5"/>
     <sheet name="헤더와바디,MIME" sheetId="6" r:id="rId6"/>
     <sheet name="MIME타입 코딩실습" sheetId="7" r:id="rId7"/>
+    <sheet name="프로젝트구조잡기" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">웰컴파일리스트!$A$1:$P$60</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="232">
   <si>
     <t>Localhost:8080의 해당 폴더</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1099,6 +1100,46 @@
   </si>
   <si>
     <t>⇒기본적으로 html로 읽기 때문에 Content-Type을 지정해서 뭐로 읽을지를 지정해 줘야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이하와같이 controller dto model service test등의 페키지를 만들어준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이때 컨트롤러는 서블릿파일로 작성해줄것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어노테이션을 사용해서 편하게 맵피을 하기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>를 보면 다음과 같이 코드가 이루어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doGet이나 doPost로 요청이 오더라도 전부 doProcess로 처리를 하도록 doProcess(request,responese);를 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doprocess에선 cmd로 받아온 값을 조건에 맞게 서비스를 호출하도록구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lombok을 라이브러리에 넣어주면 모델쪽에서 이하 기능을 편하게 사용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어노테이션으로 각종처리 간편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에서 보통 dto에 데이터값을 받아오는데 이걸 맞는 model에다 필요한 값만 뿌려줄거임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB-&gt;dto-&gt;각model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1930,6 +1971,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1937,6 +1996,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1951,34 +2019,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8211,6 +8252,642 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8DFDD3-6621-42D4-98A0-7B1F2A8C2895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="628650"/>
+          <a:ext cx="3457575" cy="2472319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571771</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754F01EA-525F-4273-9CA4-2B100CECEAC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3562350"/>
+          <a:ext cx="1943371" cy="304843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495465</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442250AB-9FEF-4A91-B3C1-22BBBA102A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6076950"/>
+          <a:ext cx="1181265" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>429738</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>29193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F61F992-AAA2-415A-A1D3-B36E959A3791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6705600"/>
+          <a:ext cx="7973538" cy="4429743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428781</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F7FFF1-2E65-427D-9AC3-5353F1B1F087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11953875"/>
+          <a:ext cx="1114581" cy="362001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114507</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3A473C-69A2-4AB6-A79E-A54406DC8478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13001625"/>
+          <a:ext cx="1486107" cy="333422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476699</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>162211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FF70AB-0F67-4AB4-A7CB-8B85C6CBD8A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13630275"/>
+          <a:ext cx="3219899" cy="2048161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>553389</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>38252</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="그룹 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF757522-99DE-41BE-B1EA-5712768D5258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="15935325"/>
+          <a:ext cx="6725589" cy="2343302"/>
+          <a:chOff x="685800" y="16983075"/>
+          <a:chExt cx="6725589" cy="2343302"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="그림 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DBBDE50-C30F-4445-8E9A-1B8F7E6BB506}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="16983075"/>
+            <a:ext cx="6658904" cy="1190791"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="26" name="그림 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB724554-EA29-47D5-A3A7-B8E103432AD7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="18240375"/>
+            <a:ext cx="6725589" cy="1086002"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>229781</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>162119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4545EAAA-AAB7-4272-B5E6-16112685F5B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="13658850"/>
+          <a:ext cx="8459381" cy="1390844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>353527</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76269</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="그룹 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EF4864-3A5D-42CE-B790-23815170A16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="18449925"/>
+          <a:ext cx="7897327" cy="2381319"/>
+          <a:chOff x="685800" y="18240375"/>
+          <a:chExt cx="7897327" cy="2381319"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="30" name="그룹 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6FA960C-EA63-4A7A-821F-25E27A14A0A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="685800" y="18240375"/>
+            <a:ext cx="7897327" cy="1876599"/>
+            <a:chOff x="685800" y="18240375"/>
+            <a:chExt cx="7897327" cy="1876599"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="그림 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A41A33-FFBC-415B-9FB2-BF8897FCC4B7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="18240375"/>
+              <a:ext cx="7897327" cy="600159"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="그림 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE96D45-C3EB-4BB5-9C45-6932AAE54A13}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="18869025"/>
+              <a:ext cx="4896533" cy="1247949"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="그림 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CB9BFC-687C-46FE-94A0-53AC74F0F4BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="20126325"/>
+            <a:ext cx="7687748" cy="495369"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>162235</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92992BB4-3248-4815-93F5-97956B6C022E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="209550"/>
+          <a:ext cx="2219635" cy="5715798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -8756,7 +9433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4ADC4E-52EF-4538-930D-D124844F4BBA}">
   <dimension ref="B2:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -9892,8 +10569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E513B61-14CE-4D7C-A8E9-82D3CC888BCA}">
   <dimension ref="A1:M278"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9932,14 +10609,14 @@
       <c r="E31" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="F31" s="106" t="s">
+      <c r="F31" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="108"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="94"/>
       <c r="L31" s="50"/>
       <c r="M31" s="50"/>
     </row>
@@ -9956,14 +10633,14 @@
       <c r="E32" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="F32" s="101" t="s">
+      <c r="F32" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="103"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="97"/>
       <c r="L32" s="50"/>
       <c r="M32" s="50"/>
     </row>
@@ -10031,65 +10708,65 @@
       <c r="B37" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="100"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="103"/>
       <c r="L37" s="50"/>
       <c r="M37" s="50"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="94"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="100"/>
       <c r="L38" s="50"/>
       <c r="M38" s="50"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="105"/>
-      <c r="C39" s="92" t="s">
+      <c r="B39" s="101"/>
+      <c r="C39" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="94"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="100"/>
       <c r="L39" s="50"/>
       <c r="M39" s="50"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="105"/>
-      <c r="C40" s="92" t="s">
+      <c r="B40" s="101"/>
+      <c r="C40" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="94"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="100"/>
       <c r="L40" s="50"/>
       <c r="M40" s="50"/>
     </row>
@@ -10111,17 +10788,17 @@
       <c r="B42" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="92" t="s">
+      <c r="C42" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="94"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="100"/>
       <c r="L42" s="50"/>
       <c r="M42" s="50"/>
     </row>
@@ -10208,16 +10885,16 @@
         <v>192</v>
       </c>
       <c r="C48" s="60"/>
-      <c r="D48" s="93" t="s">
+      <c r="D48" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="94"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="100"/>
       <c r="L48" s="50"/>
       <c r="M48" s="50"/>
     </row>
@@ -10226,16 +10903,16 @@
         <v>184</v>
       </c>
       <c r="C49" s="60"/>
-      <c r="D49" s="93" t="s">
+      <c r="D49" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="94"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="100"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50"/>
     </row>
@@ -10257,33 +10934,33 @@
       <c r="B51" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="95" t="s">
+      <c r="C51" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="96"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="105"/>
     </row>
     <row r="52" spans="1:13">
       <c r="B52" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="97" t="s">
+      <c r="C52" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="98"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="107"/>
     </row>
     <row r="53" spans="1:13">
       <c r="B53" s="41"/>
@@ -10313,17 +10990,17 @@
     </row>
     <row r="55" spans="1:13">
       <c r="B55" s="41"/>
-      <c r="C55" s="99" t="s">
+      <c r="C55" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
-      <c r="K55" s="100"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="103"/>
     </row>
     <row r="56" spans="1:13">
       <c r="B56" s="70" t="s">
@@ -10450,14 +11127,14 @@
       <c r="E203" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="F203" s="106" t="s">
+      <c r="F203" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="G203" s="107"/>
-      <c r="H203" s="107"/>
-      <c r="I203" s="107"/>
-      <c r="J203" s="107"/>
-      <c r="K203" s="108"/>
+      <c r="G203" s="93"/>
+      <c r="H203" s="93"/>
+      <c r="I203" s="93"/>
+      <c r="J203" s="93"/>
+      <c r="K203" s="94"/>
       <c r="L203" s="50"/>
       <c r="M203" s="50"/>
     </row>
@@ -10474,14 +11151,14 @@
       <c r="E204" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="F204" s="101" t="s">
+      <c r="F204" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="G204" s="102"/>
-      <c r="H204" s="102"/>
-      <c r="I204" s="102"/>
-      <c r="J204" s="102"/>
-      <c r="K204" s="103"/>
+      <c r="G204" s="96"/>
+      <c r="H204" s="96"/>
+      <c r="I204" s="96"/>
+      <c r="J204" s="96"/>
+      <c r="K204" s="97"/>
       <c r="L204" s="50"/>
       <c r="M204" s="50"/>
     </row>
@@ -10549,65 +11226,65 @@
       <c r="B209" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="C209" s="99"/>
-      <c r="D209" s="99"/>
-      <c r="E209" s="99"/>
-      <c r="F209" s="99"/>
-      <c r="G209" s="99"/>
-      <c r="H209" s="99"/>
-      <c r="I209" s="99"/>
-      <c r="J209" s="99"/>
-      <c r="K209" s="100"/>
+      <c r="C209" s="102"/>
+      <c r="D209" s="102"/>
+      <c r="E209" s="102"/>
+      <c r="F209" s="102"/>
+      <c r="G209" s="102"/>
+      <c r="H209" s="102"/>
+      <c r="I209" s="102"/>
+      <c r="J209" s="102"/>
+      <c r="K209" s="103"/>
       <c r="L209" s="50"/>
       <c r="M209" s="50"/>
     </row>
     <row r="210" spans="2:13">
-      <c r="B210" s="104" t="s">
+      <c r="B210" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="C210" s="92" t="s">
+      <c r="C210" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="D210" s="93"/>
-      <c r="E210" s="93"/>
-      <c r="F210" s="93"/>
-      <c r="G210" s="93"/>
-      <c r="H210" s="93"/>
-      <c r="I210" s="93"/>
-      <c r="J210" s="93"/>
-      <c r="K210" s="94"/>
+      <c r="D210" s="99"/>
+      <c r="E210" s="99"/>
+      <c r="F210" s="99"/>
+      <c r="G210" s="99"/>
+      <c r="H210" s="99"/>
+      <c r="I210" s="99"/>
+      <c r="J210" s="99"/>
+      <c r="K210" s="100"/>
       <c r="L210" s="50"/>
       <c r="M210" s="50"/>
     </row>
     <row r="211" spans="2:13">
-      <c r="B211" s="105"/>
-      <c r="C211" s="92" t="s">
+      <c r="B211" s="101"/>
+      <c r="C211" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="D211" s="93"/>
-      <c r="E211" s="93"/>
-      <c r="F211" s="93"/>
-      <c r="G211" s="93"/>
-      <c r="H211" s="93"/>
-      <c r="I211" s="93"/>
-      <c r="J211" s="93"/>
-      <c r="K211" s="94"/>
+      <c r="D211" s="99"/>
+      <c r="E211" s="99"/>
+      <c r="F211" s="99"/>
+      <c r="G211" s="99"/>
+      <c r="H211" s="99"/>
+      <c r="I211" s="99"/>
+      <c r="J211" s="99"/>
+      <c r="K211" s="100"/>
       <c r="L211" s="50"/>
       <c r="M211" s="50"/>
     </row>
     <row r="212" spans="2:13">
-      <c r="B212" s="105"/>
-      <c r="C212" s="92" t="s">
+      <c r="B212" s="101"/>
+      <c r="C212" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="D212" s="93"/>
-      <c r="E212" s="93"/>
-      <c r="F212" s="93"/>
-      <c r="G212" s="93"/>
-      <c r="H212" s="93"/>
-      <c r="I212" s="93"/>
-      <c r="J212" s="93"/>
-      <c r="K212" s="94"/>
+      <c r="D212" s="99"/>
+      <c r="E212" s="99"/>
+      <c r="F212" s="99"/>
+      <c r="G212" s="99"/>
+      <c r="H212" s="99"/>
+      <c r="I212" s="99"/>
+      <c r="J212" s="99"/>
+      <c r="K212" s="100"/>
       <c r="L212" s="50"/>
       <c r="M212" s="50"/>
     </row>
@@ -10629,17 +11306,17 @@
       <c r="B214" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="C214" s="92" t="s">
+      <c r="C214" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D214" s="93"/>
-      <c r="E214" s="93"/>
-      <c r="F214" s="93"/>
-      <c r="G214" s="93"/>
-      <c r="H214" s="93"/>
-      <c r="I214" s="93"/>
-      <c r="J214" s="93"/>
-      <c r="K214" s="94"/>
+      <c r="D214" s="99"/>
+      <c r="E214" s="99"/>
+      <c r="F214" s="99"/>
+      <c r="G214" s="99"/>
+      <c r="H214" s="99"/>
+      <c r="I214" s="99"/>
+      <c r="J214" s="99"/>
+      <c r="K214" s="100"/>
       <c r="L214" s="50"/>
       <c r="M214" s="50"/>
     </row>
@@ -10726,16 +11403,16 @@
         <v>192</v>
       </c>
       <c r="C220" s="60"/>
-      <c r="D220" s="93" t="s">
+      <c r="D220" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="E220" s="93"/>
-      <c r="F220" s="93"/>
-      <c r="G220" s="93"/>
-      <c r="H220" s="93"/>
-      <c r="I220" s="93"/>
-      <c r="J220" s="93"/>
-      <c r="K220" s="94"/>
+      <c r="E220" s="99"/>
+      <c r="F220" s="99"/>
+      <c r="G220" s="99"/>
+      <c r="H220" s="99"/>
+      <c r="I220" s="99"/>
+      <c r="J220" s="99"/>
+      <c r="K220" s="100"/>
       <c r="L220" s="50"/>
       <c r="M220" s="50"/>
     </row>
@@ -10744,16 +11421,16 @@
         <v>184</v>
       </c>
       <c r="C221" s="60"/>
-      <c r="D221" s="93" t="s">
+      <c r="D221" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="E221" s="93"/>
-      <c r="F221" s="93"/>
-      <c r="G221" s="93"/>
-      <c r="H221" s="93"/>
-      <c r="I221" s="93"/>
-      <c r="J221" s="93"/>
-      <c r="K221" s="94"/>
+      <c r="E221" s="99"/>
+      <c r="F221" s="99"/>
+      <c r="G221" s="99"/>
+      <c r="H221" s="99"/>
+      <c r="I221" s="99"/>
+      <c r="J221" s="99"/>
+      <c r="K221" s="100"/>
       <c r="L221" s="50"/>
       <c r="M221" s="50"/>
     </row>
@@ -10775,33 +11452,33 @@
       <c r="B223" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="C223" s="95" t="s">
+      <c r="C223" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="D223" s="95"/>
-      <c r="E223" s="95"/>
-      <c r="F223" s="95"/>
-      <c r="G223" s="95"/>
-      <c r="H223" s="95"/>
-      <c r="I223" s="95"/>
-      <c r="J223" s="95"/>
-      <c r="K223" s="96"/>
+      <c r="D223" s="104"/>
+      <c r="E223" s="104"/>
+      <c r="F223" s="104"/>
+      <c r="G223" s="104"/>
+      <c r="H223" s="104"/>
+      <c r="I223" s="104"/>
+      <c r="J223" s="104"/>
+      <c r="K223" s="105"/>
     </row>
     <row r="224" spans="2:13">
       <c r="B224" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C224" s="97" t="s">
+      <c r="C224" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="D224" s="97"/>
-      <c r="E224" s="97"/>
-      <c r="F224" s="97"/>
-      <c r="G224" s="97"/>
-      <c r="H224" s="97"/>
-      <c r="I224" s="97"/>
-      <c r="J224" s="97"/>
-      <c r="K224" s="98"/>
+      <c r="D224" s="106"/>
+      <c r="E224" s="106"/>
+      <c r="F224" s="106"/>
+      <c r="G224" s="106"/>
+      <c r="H224" s="106"/>
+      <c r="I224" s="106"/>
+      <c r="J224" s="106"/>
+      <c r="K224" s="107"/>
     </row>
     <row r="225" spans="2:11" ht="17.25" thickBot="1">
       <c r="B225" s="41"/>
@@ -10833,17 +11510,17 @@
       <c r="B227" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="C227" s="99" t="s">
+      <c r="C227" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="D227" s="99"/>
-      <c r="E227" s="99"/>
-      <c r="F227" s="99"/>
-      <c r="G227" s="99"/>
-      <c r="H227" s="99"/>
-      <c r="I227" s="99"/>
-      <c r="J227" s="99"/>
-      <c r="K227" s="100"/>
+      <c r="D227" s="102"/>
+      <c r="E227" s="102"/>
+      <c r="F227" s="102"/>
+      <c r="G227" s="102"/>
+      <c r="H227" s="102"/>
+      <c r="I227" s="102"/>
+      <c r="J227" s="102"/>
+      <c r="K227" s="103"/>
     </row>
     <row r="228" spans="2:11">
       <c r="B228" s="76" t="s">
@@ -10981,20 +11658,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="F203:K203"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C55:K55"/>
     <mergeCell ref="C227:K227"/>
     <mergeCell ref="F204:K204"/>
     <mergeCell ref="C209:K209"/>
@@ -11007,10 +11670,111 @@
     <mergeCell ref="D221:K221"/>
     <mergeCell ref="C223:K223"/>
     <mergeCell ref="C224:K224"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F203:K203"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="D49:K49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048D1676-8C66-41E1-84C8-968E4A05EC4E}">
+  <dimension ref="A1:O65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="F17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" ht="17.25" thickBot="1"/>
+    <row r="55" spans="2:15">
+      <c r="B55" t="s">
+        <v>226</v>
+      </c>
+      <c r="M55" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="N55" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="O55" s="54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" t="s">
+        <v>227</v>
+      </c>
+      <c r="M56" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="N56" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="O56" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>228</v>
+      </c>
+      <c r="J65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>